--- a/SERVER/Common/Data/excel/UnitDefine.xlsx
+++ b/SERVER/Common/Data/excel/UnitDefine.xlsx
@@ -14,9 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="79">
-  <si>
-    <t>TID</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="74">
+  <si>
+    <t>ID</t>
   </si>
   <si>
     <t>Name</t>
@@ -193,58 +193,43 @@
     <t>HeroKnightMale Melee</t>
   </si>
   <si>
-    <t>Character</t>
+    <t>Class</t>
   </si>
   <si>
     <t>近战物理系</t>
   </si>
   <si>
-    <t>魔法师</t>
-  </si>
-  <si>
-    <t>Prefabs/PolyArtWizardStandardMat</t>
-  </si>
-  <si>
-    <t>远程法术打击</t>
-  </si>
-  <si>
-    <t>仙术</t>
-  </si>
-  <si>
-    <t>Prefabs/DogPBR</t>
-  </si>
-  <si>
-    <t>法系辅助</t>
-  </si>
-  <si>
-    <t>游侠</t>
-  </si>
-  <si>
-    <t>远程高爆发</t>
-  </si>
-  <si>
-    <t>鸡你太美</t>
-  </si>
-  <si>
     <t>Monster</t>
   </si>
   <si>
-    <t>山贼</t>
-  </si>
-  <si>
-    <t>Prefabs/1002</t>
-  </si>
-  <si>
-    <t>土匪</t>
-  </si>
-  <si>
-    <t>丛林僵尸</t>
+    <t>幽灵士兵</t>
+  </si>
+  <si>
+    <t>地精萨满</t>
+  </si>
+  <si>
+    <t>地精酋长</t>
+  </si>
+  <si>
+    <t>地精女战士</t>
+  </si>
+  <si>
+    <t>地精男战士</t>
+  </si>
+  <si>
+    <t>Goblin Warrior Male</t>
+  </si>
+  <si>
+    <t>岩石傀儡</t>
+  </si>
+  <si>
+    <t>骷髅骑士</t>
+  </si>
+  <si>
+    <t>死灵法师</t>
   </si>
   <si>
     <t>传送门</t>
-  </si>
-  <si>
-    <t>Units/Gate_4001001</t>
   </si>
   <si>
     <t>Gate</t>
@@ -263,7 +248,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -273,13 +258,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -431,7 +409,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -507,12 +485,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -749,48 +721,51 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -800,101 +775,98 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -907,6 +879,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1229,8 +1204,8 @@
   <sheetPr/>
   <dimension ref="A1:AA26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1"/>
@@ -1502,7 +1477,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" customHeight="1" spans="1:26">
+    <row r="4" customHeight="1" spans="1:27">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -1581,194 +1556,188 @@
       <c r="Z4" s="3">
         <v>0.6</v>
       </c>
+      <c r="AA4" s="5" t="s">
+        <v>61</v>
+      </c>
     </row>
-    <row r="5" customHeight="1" spans="1:26">
+    <row r="5" customHeight="1" spans="1:27">
       <c r="A5" s="3">
-        <v>2</v>
+        <v>1001</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>63</v>
-      </c>
       <c r="F5" s="3">
-        <v>3000</v>
+        <v>4</v>
       </c>
       <c r="G5" s="3">
         <v>300</v>
       </c>
       <c r="H5" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="I5" s="3">
+        <v>8</v>
+      </c>
+      <c r="J5" s="3">
+        <v>0</v>
+      </c>
+      <c r="K5" s="3">
+        <v>10</v>
+      </c>
+      <c r="L5" s="3">
+        <v>0</v>
+      </c>
+      <c r="M5" s="3">
+        <v>2</v>
+      </c>
+      <c r="N5" s="3">
+        <v>2</v>
+      </c>
+      <c r="O5" s="3">
         <v>1</v>
       </c>
-      <c r="J5" s="3">
-        <v>0</v>
-      </c>
-      <c r="K5" s="3">
-        <v>0</v>
-      </c>
-      <c r="L5" s="3">
-        <v>30</v>
-      </c>
-      <c r="M5" s="3">
-        <v>0</v>
-      </c>
-      <c r="N5" s="3">
-        <v>0</v>
-      </c>
-      <c r="O5" s="3">
-        <v>10</v>
-      </c>
       <c r="P5" s="3">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="Q5" s="3">
         <v>100</v>
       </c>
       <c r="R5" s="3">
+        <v>100</v>
+      </c>
+      <c r="S5" s="3">
+        <v>100</v>
+      </c>
+      <c r="T5" s="3">
+        <v>100</v>
+      </c>
+      <c r="U5" s="3">
+        <v>100</v>
+      </c>
+      <c r="V5" s="3">
+        <v>100</v>
+      </c>
+      <c r="W5" s="3">
+        <v>100</v>
+      </c>
+      <c r="X5" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y5" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z5" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA5" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" customHeight="1" spans="1:27">
+      <c r="A6" s="3">
+        <v>1002</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F6" s="3">
         <v>5</v>
-      </c>
-      <c r="S5" s="3">
-        <v>1</v>
-      </c>
-      <c r="T5" s="3">
-        <v>0</v>
-      </c>
-      <c r="U5" s="3">
-        <v>10</v>
-      </c>
-      <c r="V5" s="3">
-        <v>20</v>
-      </c>
-      <c r="W5" s="3">
-        <v>20</v>
-      </c>
-      <c r="X5" s="3">
-        <v>1</v>
-      </c>
-      <c r="Y5" s="3">
-        <v>2</v>
-      </c>
-      <c r="Z5" s="3">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="6" customHeight="1" spans="1:26">
-      <c r="A6" s="3">
-        <v>3</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="F6" s="3">
-        <v>3000</v>
       </c>
       <c r="G6" s="3">
         <v>400</v>
       </c>
       <c r="H6" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="I6" s="3">
+        <v>3</v>
+      </c>
+      <c r="J6" s="3">
+        <v>0</v>
+      </c>
+      <c r="K6" s="3">
+        <v>20</v>
+      </c>
+      <c r="L6" s="3">
+        <v>0</v>
+      </c>
+      <c r="M6" s="3">
+        <v>10</v>
+      </c>
+      <c r="N6" s="3">
+        <v>10</v>
+      </c>
+      <c r="O6" s="3">
         <v>1</v>
       </c>
-      <c r="J6" s="3">
-        <v>0</v>
-      </c>
-      <c r="K6" s="3">
-        <v>0</v>
-      </c>
-      <c r="L6" s="3">
-        <v>30</v>
-      </c>
-      <c r="M6" s="3">
-        <v>0</v>
-      </c>
-      <c r="N6" s="3">
-        <v>0</v>
-      </c>
-      <c r="O6" s="3">
-        <v>10</v>
-      </c>
       <c r="P6" s="3">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="Q6" s="3">
         <v>100</v>
       </c>
       <c r="R6" s="3">
+        <v>100</v>
+      </c>
+      <c r="S6" s="3">
+        <v>100</v>
+      </c>
+      <c r="T6" s="3">
+        <v>100</v>
+      </c>
+      <c r="U6" s="3">
+        <v>100</v>
+      </c>
+      <c r="V6" s="3">
+        <v>100</v>
+      </c>
+      <c r="W6" s="3">
+        <v>100</v>
+      </c>
+      <c r="X6" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y6" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z6" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA6" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" spans="1:27">
+      <c r="A7" s="3">
+        <v>1003</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F7" s="3">
+        <v>6</v>
+      </c>
+      <c r="G7" s="3">
+        <v>500</v>
+      </c>
+      <c r="H7" s="3">
+        <v>200</v>
+      </c>
+      <c r="I7" s="3">
         <v>5</v>
-      </c>
-      <c r="S6" s="3">
-        <v>1</v>
-      </c>
-      <c r="T6" s="3">
-        <v>0</v>
-      </c>
-      <c r="U6" s="3">
-        <v>10</v>
-      </c>
-      <c r="V6" s="3">
-        <v>20</v>
-      </c>
-      <c r="W6" s="3">
-        <v>20</v>
-      </c>
-      <c r="X6" s="3">
-        <v>1</v>
-      </c>
-      <c r="Y6" s="3">
-        <v>2</v>
-      </c>
-      <c r="Z6" s="3">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="7" customHeight="1" spans="1:26">
-      <c r="A7" s="3">
-        <v>4</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="F7" s="3">
-        <v>3000</v>
-      </c>
-      <c r="G7" s="3">
-        <v>400</v>
-      </c>
-      <c r="H7" s="3">
-        <v>400</v>
-      </c>
-      <c r="I7" s="3">
-        <v>1</v>
       </c>
       <c r="J7" s="3">
         <v>0</v>
@@ -1780,69 +1749,70 @@
         <v>0</v>
       </c>
       <c r="M7" s="3">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="N7" s="3">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="O7" s="3">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="P7" s="3">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="Q7" s="3">
         <v>100</v>
       </c>
       <c r="R7" s="3">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="S7" s="3">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="T7" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U7" s="3">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="V7" s="3">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="W7" s="3">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="X7" s="3">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="Y7" s="3">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="Z7" s="3">
-        <v>0.6</v>
+        <v>100</v>
+      </c>
+      <c r="AA7" s="5" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:27">
       <c r="A8" s="3">
-        <v>1001</v>
+        <v>1004</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C8" s="4" t="s">
         <v>65</v>
       </c>
+      <c r="C8" s="4"/>
       <c r="D8" s="3" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="F8" s="3">
-        <v>3000</v>
+        <v>3</v>
       </c>
       <c r="G8" s="3">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="H8" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="I8" s="3">
         <v>1</v>
@@ -1851,16 +1821,16 @@
         <v>0</v>
       </c>
       <c r="K8" s="3">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="L8" s="3">
         <v>0</v>
       </c>
       <c r="M8" s="3">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="N8" s="3">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="O8" s="3">
         <v>1</v>
@@ -1899,48 +1869,48 @@
         <v>0</v>
       </c>
       <c r="AA8" s="3" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:27">
       <c r="A9" s="3">
-        <v>1002</v>
+        <v>1005</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="F9" s="3">
-        <v>3000</v>
+        <v>4</v>
       </c>
       <c r="G9" s="3">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="H9" s="3">
         <v>200</v>
       </c>
       <c r="I9" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J9" s="3">
         <v>0</v>
       </c>
       <c r="K9" s="3">
+        <v>50</v>
+      </c>
+      <c r="L9" s="3">
+        <v>0</v>
+      </c>
+      <c r="M9" s="3">
         <v>20</v>
       </c>
-      <c r="L9" s="3">
-        <v>0</v>
-      </c>
-      <c r="M9" s="3">
-        <v>10</v>
-      </c>
       <c r="N9" s="3">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="O9" s="3">
         <v>1</v>
@@ -1979,51 +1949,49 @@
         <v>0</v>
       </c>
       <c r="AA9" s="3" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:27">
       <c r="A10" s="3">
-        <v>1003</v>
+        <v>1006</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>65</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="C10" s="4"/>
       <c r="D10" s="3" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="F10" s="3">
-        <v>3000</v>
+        <v>2</v>
       </c>
       <c r="G10" s="3">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="H10" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I10" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K10" s="3">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="L10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M10" s="3">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="N10" s="3">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="O10" s="3">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="P10" s="3">
         <v>150</v>
@@ -2059,51 +2027,49 @@
         <v>0</v>
       </c>
       <c r="AA10" s="3" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:27">
       <c r="A11" s="3">
-        <v>1004</v>
+        <v>1007</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>65</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="C11" s="4"/>
       <c r="D11" s="3" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="F11" s="3">
-        <v>3000</v>
+        <v>5</v>
       </c>
       <c r="G11" s="3">
-        <v>800</v>
+        <v>100</v>
       </c>
       <c r="H11" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I11" s="3">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J11" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K11" s="3">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="L11" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M11" s="3">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="N11" s="3">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="O11" s="3">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="P11" s="3">
         <v>150</v>
@@ -2139,27 +2105,22 @@
         <v>0</v>
       </c>
       <c r="AA11" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" customHeight="1" spans="1:27">
+      <c r="A12" s="3">
+        <v>1008</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="12" customHeight="1" spans="1:26">
-      <c r="A12" s="3">
-        <v>4001001</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>76</v>
-      </c>
+      <c r="C12" s="4"/>
       <c r="D12" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="F12" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G12" s="3">
         <v>100</v>
@@ -2168,25 +2129,25 @@
         <v>100</v>
       </c>
       <c r="I12" s="3">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="J12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O12" s="3">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="P12" s="3">
         <v>150</v>
@@ -2221,15 +2182,54 @@
       <c r="Z12" s="3">
         <v>0</v>
       </c>
+      <c r="AA12" s="5" t="s">
+        <v>61</v>
+      </c>
     </row>
-    <row r="13" customHeight="1" spans="3:3">
+    <row r="13" customHeight="1" spans="1:15">
+      <c r="A13" s="3">
+        <v>4001001</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>71</v>
+      </c>
       <c r="C13" s="4"/>
-    </row>
-    <row r="14" customHeight="1" spans="3:3">
-      <c r="C14" s="4"/>
-    </row>
-    <row r="15" customHeight="1" spans="3:3">
-      <c r="C15" s="4"/>
+      <c r="D13" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F13" s="3">
+        <v>0</v>
+      </c>
+      <c r="G13" s="3">
+        <v>100</v>
+      </c>
+      <c r="H13" s="3">
+        <v>100</v>
+      </c>
+      <c r="I13" s="3">
+        <v>1</v>
+      </c>
+      <c r="J13" s="3">
+        <v>0</v>
+      </c>
+      <c r="K13" s="3">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" customHeight="1" spans="3:3">
       <c r="C16" s="4"/>
@@ -2242,9 +2242,6 @@
     </row>
     <row r="19" customHeight="1" spans="3:3">
       <c r="C19" s="4"/>
-    </row>
-    <row r="20" customHeight="1" spans="3:3">
-      <c r="C20" s="4"/>
     </row>
     <row r="21" customHeight="1" spans="3:3">
       <c r="C21" s="4"/>

--- a/SERVER/Common/Data/excel/UnitDefine.xlsx
+++ b/SERVER/Common/Data/excel/UnitDefine.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="74">
   <si>
     <t>ID</t>
   </si>
@@ -199,10 +199,10 @@
     <t>近战物理系</t>
   </si>
   <si>
+    <t>幽灵士兵</t>
+  </si>
+  <si>
     <t>Monster</t>
-  </si>
-  <si>
-    <t>幽灵士兵</t>
   </si>
   <si>
     <t>地精萨满</t>
@@ -1204,8 +1204,8 @@
   <sheetPr/>
   <dimension ref="A1:AA26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="AB15" sqref="AB15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1"/>
@@ -1556,20 +1556,18 @@
       <c r="Z4" s="3">
         <v>0.6</v>
       </c>
-      <c r="AA4" s="5" t="s">
-        <v>61</v>
-      </c>
+      <c r="AA4" s="5"/>
     </row>
     <row r="5" customHeight="1" spans="1:27">
       <c r="A5" s="3">
         <v>1001</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F5" s="3">
         <v>4</v>
@@ -1635,7 +1633,7 @@
         <v>100</v>
       </c>
       <c r="AA5" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:27">
@@ -1647,7 +1645,7 @@
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F6" s="3">
         <v>5</v>
@@ -1713,7 +1711,7 @@
         <v>100</v>
       </c>
       <c r="AA6" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:27">
@@ -1725,7 +1723,7 @@
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F7" s="3">
         <v>6</v>
@@ -1791,7 +1789,7 @@
         <v>100</v>
       </c>
       <c r="AA7" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:27">
@@ -1803,7 +1801,7 @@
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F8" s="3">
         <v>3</v>
@@ -1869,7 +1867,7 @@
         <v>0</v>
       </c>
       <c r="AA8" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:27">
@@ -1883,7 +1881,7 @@
         <v>67</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F9" s="3">
         <v>4</v>
@@ -1949,7 +1947,7 @@
         <v>0</v>
       </c>
       <c r="AA9" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:27">
@@ -1961,7 +1959,7 @@
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F10" s="3">
         <v>2</v>
@@ -2027,7 +2025,7 @@
         <v>0</v>
       </c>
       <c r="AA10" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:27">
@@ -2039,7 +2037,7 @@
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F11" s="3">
         <v>5</v>
@@ -2105,7 +2103,7 @@
         <v>0</v>
       </c>
       <c r="AA11" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:27">
@@ -2117,7 +2115,7 @@
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F12" s="3">
         <v>3</v>
@@ -2183,7 +2181,7 @@
         <v>0</v>
       </c>
       <c r="AA12" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:15">

--- a/SERVER/Common/Data/excel/UnitDefine.xlsx
+++ b/SERVER/Common/Data/excel/UnitDefine.xlsx
@@ -1204,8 +1204,8 @@
   <sheetPr/>
   <dimension ref="A1:AA26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="AB15" sqref="AB15"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1"/>

--- a/SERVER/Common/Data/excel/UnitDefine.xlsx
+++ b/SERVER/Common/Data/excel/UnitDefine.xlsx
@@ -34,10 +34,10 @@
     <t>Speed</t>
   </si>
   <si>
-    <t>HPMax</t>
-  </si>
-  <si>
-    <t>MPMax</t>
+    <t>MaxHp</t>
+  </si>
+  <si>
+    <t>MaxMp</t>
   </si>
   <si>
     <t>InitLevel</t>
@@ -46,22 +46,22 @@
     <t>Energy</t>
   </si>
   <si>
-    <t>AD</t>
-  </si>
-  <si>
-    <t>AP</t>
-  </si>
-  <si>
-    <t>DEF</t>
-  </si>
-  <si>
-    <t>MDEF</t>
-  </si>
-  <si>
-    <t>CRI</t>
-  </si>
-  <si>
-    <t>CRD</t>
+    <t>Ad</t>
+  </si>
+  <si>
+    <t>Ap</t>
+  </si>
+  <si>
+    <t>Def</t>
+  </si>
+  <si>
+    <t>Mdef</t>
+  </si>
+  <si>
+    <t>Cri</t>
+  </si>
+  <si>
+    <t>Crd</t>
   </si>
   <si>
     <t>HitRate</t>
@@ -76,25 +76,25 @@
     <t>HpSteal</t>
   </si>
   <si>
-    <t>STR</t>
-  </si>
-  <si>
-    <t>INT</t>
-  </si>
-  <si>
-    <t>AGI</t>
-  </si>
-  <si>
-    <t>GSTR</t>
-  </si>
-  <si>
-    <t>GINT</t>
-  </si>
-  <si>
-    <t>GAGI</t>
-  </si>
-  <si>
-    <t>AI</t>
+    <t>Str</t>
+  </si>
+  <si>
+    <t>Int</t>
+  </si>
+  <si>
+    <t>Agi</t>
+  </si>
+  <si>
+    <t>Gstr</t>
+  </si>
+  <si>
+    <t>Gint</t>
+  </si>
+  <si>
+    <t>Gagi</t>
+  </si>
+  <si>
+    <t>Ai</t>
   </si>
   <si>
     <t>int</t>
@@ -184,7 +184,7 @@
     <t>敏捷成长</t>
   </si>
   <si>
-    <t>AI名称</t>
+    <t>Ai名称</t>
   </si>
   <si>
     <t>剑士</t>
@@ -1204,8 +1204,8 @@
   <sheetPr/>
   <dimension ref="A1:AA26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1"/>
@@ -1494,7 +1494,7 @@
         <v>60</v>
       </c>
       <c r="F4" s="3">
-        <v>3000</v>
+        <v>5</v>
       </c>
       <c r="G4" s="3">
         <v>500</v>
@@ -1884,7 +1884,7 @@
         <v>62</v>
       </c>
       <c r="F9" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G9" s="3">
         <v>800</v>

--- a/SERVER/Common/Data/excel/UnitDefine.xlsx
+++ b/SERVER/Common/Data/excel/UnitDefine.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22480" windowHeight="9690"/>
+    <workbookView windowWidth="22700" windowHeight="6640"/>
   </bookViews>
   <sheets>
     <sheet name="UnitDefine" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="80">
   <si>
     <t>ID</t>
   </si>
@@ -236,6 +236,24 @@
   </si>
   <si>
     <t>黄色传送门</t>
+  </si>
+  <si>
+    <t>治愈之水</t>
+  </si>
+  <si>
+    <t>SM_Item_Potion_01</t>
+  </si>
+  <si>
+    <t>DroppedItem</t>
+  </si>
+  <si>
+    <t>生命泉涌中的生命圣水稀释而来，对伤势一定的治疗效果。</t>
+  </si>
+  <si>
+    <t>龙钢战刃</t>
+  </si>
+  <si>
+    <t>SM_Wep_Ornate_Sword_02</t>
   </si>
 </sst>
 </file>
@@ -1204,8 +1222,8 @@
   <sheetPr/>
   <dimension ref="A1:AA26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1"/>
@@ -1213,7 +1231,8 @@
     <col min="1" max="1" width="15.375" style="3" customWidth="1"/>
     <col min="2" max="2" width="12.125" style="3" customWidth="1"/>
     <col min="3" max="3" width="34.375" style="3" customWidth="1"/>
-    <col min="4" max="5" width="13.25" style="3" customWidth="1"/>
+    <col min="4" max="4" width="13.25" style="3" customWidth="1"/>
+    <col min="5" max="5" width="51.0833333333333" style="3" customWidth="1"/>
     <col min="6" max="6" width="9.125" style="3" customWidth="1"/>
     <col min="7" max="15" width="9" style="3"/>
     <col min="16" max="16" width="10" style="3" customWidth="1"/>
@@ -1484,7 +1503,7 @@
       <c r="B4" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>58</v>
       </c>
       <c r="D4" s="3" t="s">
@@ -1565,7 +1584,7 @@
       <c r="B5" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C5" s="4"/>
+      <c r="C5" s="3"/>
       <c r="D5" s="3" t="s">
         <v>62</v>
       </c>
@@ -1643,7 +1662,7 @@
       <c r="B6" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C6" s="4"/>
+      <c r="C6" s="3"/>
       <c r="D6" s="3" t="s">
         <v>62</v>
       </c>
@@ -1721,7 +1740,7 @@
       <c r="B7" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C7" s="4"/>
+      <c r="C7" s="3"/>
       <c r="D7" s="3" t="s">
         <v>62</v>
       </c>
@@ -1799,7 +1818,7 @@
       <c r="B8" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C8" s="4"/>
+      <c r="C8" s="3"/>
       <c r="D8" s="3" t="s">
         <v>62</v>
       </c>
@@ -1877,7 +1896,7 @@
       <c r="B9" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="3" t="s">
         <v>67</v>
       </c>
       <c r="D9" s="3" t="s">
@@ -1957,7 +1976,7 @@
       <c r="B10" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C10" s="4"/>
+      <c r="C10" s="3"/>
       <c r="D10" s="3" t="s">
         <v>62</v>
       </c>
@@ -2035,7 +2054,7 @@
       <c r="B11" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C11" s="4"/>
+      <c r="C11" s="3"/>
       <c r="D11" s="3" t="s">
         <v>62</v>
       </c>
@@ -2113,7 +2132,7 @@
       <c r="B12" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C12" s="4"/>
+      <c r="C12" s="3"/>
       <c r="D12" s="3" t="s">
         <v>62</v>
       </c>
@@ -2184,14 +2203,14 @@
         <v>62</v>
       </c>
     </row>
-    <row r="13" customHeight="1" spans="1:15">
+    <row r="13" customHeight="1" spans="1:19">
       <c r="A13" s="3">
         <v>4001001</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C13" s="4"/>
+      <c r="C13" s="3"/>
       <c r="D13" s="3" t="s">
         <v>72</v>
       </c>
@@ -2202,13 +2221,13 @@
         <v>0</v>
       </c>
       <c r="G13" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H13" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I13" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" s="3">
         <v>0</v>
@@ -2226,7 +2245,134 @@
         <v>0</v>
       </c>
       <c r="O13" s="3">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" customHeight="1" spans="1:19">
+      <c r="A14" s="3">
+        <v>1001001</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" customHeight="1" spans="1:19">
+      <c r="A15" s="3">
+        <v>1002001</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0</v>
+      </c>
+      <c r="H15" s="3">
+        <v>0</v>
+      </c>
+      <c r="I15" s="3">
+        <v>0</v>
+      </c>
+      <c r="J15" s="3">
+        <v>0</v>
+      </c>
+      <c r="K15" s="3">
+        <v>0</v>
+      </c>
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+      <c r="S15" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="3:3">

--- a/SERVER/Common/Data/excel/UnitDefine.xlsx
+++ b/SERVER/Common/Data/excel/UnitDefine.xlsx
@@ -1222,8 +1222,8 @@
   <sheetPr/>
   <dimension ref="A1:AA26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1"/>

--- a/SERVER/Common/Data/excel/UnitDefine.xlsx
+++ b/SERVER/Common/Data/excel/UnitDefine.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="83">
   <si>
     <t>ID</t>
   </si>
@@ -193,7 +193,7 @@
     <t>HeroKnightMale Melee</t>
   </si>
   <si>
-    <t>Class</t>
+    <t>Player</t>
   </si>
   <si>
     <t>近战物理系</t>
@@ -227,6 +227,15 @@
   </si>
   <si>
     <t>死灵法师</t>
+  </si>
+  <si>
+    <t>铁匠达萨贝</t>
+  </si>
+  <si>
+    <t>Blacksmith Male</t>
+  </si>
+  <si>
+    <t>Npc</t>
   </si>
   <si>
     <t>传送门</t>
@@ -1220,10 +1229,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AA26"/>
+  <dimension ref="A1:AA27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1"/>
@@ -1584,7 +1593,6 @@
       <c r="B5" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C5" s="3"/>
       <c r="D5" s="3" t="s">
         <v>62</v>
       </c>
@@ -1662,7 +1670,6 @@
       <c r="B6" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C6" s="3"/>
       <c r="D6" s="3" t="s">
         <v>62</v>
       </c>
@@ -1740,7 +1747,6 @@
       <c r="B7" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C7" s="3"/>
       <c r="D7" s="3" t="s">
         <v>62</v>
       </c>
@@ -1818,7 +1824,6 @@
       <c r="B8" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C8" s="3"/>
       <c r="D8" s="3" t="s">
         <v>62</v>
       </c>
@@ -1976,7 +1981,6 @@
       <c r="B10" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C10" s="3"/>
       <c r="D10" s="3" t="s">
         <v>62</v>
       </c>
@@ -2054,7 +2058,6 @@
       <c r="B11" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C11" s="3"/>
       <c r="D11" s="3" t="s">
         <v>62</v>
       </c>
@@ -2132,7 +2135,6 @@
       <c r="B12" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C12" s="3"/>
       <c r="D12" s="3" t="s">
         <v>62</v>
       </c>
@@ -2203,31 +2205,30 @@
         <v>62</v>
       </c>
     </row>
-    <row r="13" customHeight="1" spans="1:19">
+    <row r="13" customHeight="1" spans="1:26">
       <c r="A13" s="3">
-        <v>4001001</v>
+        <v>2001</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C13" s="3"/>
+      <c r="C13" s="3" t="s">
+        <v>72</v>
+      </c>
       <c r="D13" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E13" s="3" t="s">
         <v>73</v>
       </c>
       <c r="F13" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" s="3">
         <v>0</v>
       </c>
       <c r="I13" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" s="3">
         <v>0</v>
@@ -2257,24 +2258,42 @@
         <v>0</v>
       </c>
       <c r="S13" s="3">
+        <v>0</v>
+      </c>
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:19">
       <c r="A14" s="3">
-        <v>1001001</v>
+        <v>4001001</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="D14" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="E14" s="3" t="s">
         <v>76</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>77</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
@@ -2321,62 +2340,118 @@
     </row>
     <row r="15" customHeight="1" spans="1:19">
       <c r="A15" s="3">
+        <v>1001001</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0</v>
+      </c>
+      <c r="H15" s="3">
+        <v>0</v>
+      </c>
+      <c r="I15" s="3">
+        <v>0</v>
+      </c>
+      <c r="J15" s="3">
+        <v>0</v>
+      </c>
+      <c r="K15" s="3">
+        <v>0</v>
+      </c>
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" customHeight="1" spans="1:19">
+      <c r="A16" s="3">
         <v>1002001</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C15" s="3" t="s">
+      <c r="B16" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="F15" s="3">
-        <v>0</v>
-      </c>
-      <c r="G15" s="3">
-        <v>0</v>
-      </c>
-      <c r="H15" s="3">
-        <v>0</v>
-      </c>
-      <c r="I15" s="3">
-        <v>0</v>
-      </c>
-      <c r="J15" s="3">
-        <v>0</v>
-      </c>
-      <c r="K15" s="3">
-        <v>0</v>
-      </c>
-      <c r="L15" s="3">
-        <v>0</v>
-      </c>
-      <c r="M15" s="3">
-        <v>0</v>
-      </c>
-      <c r="N15" s="3">
-        <v>0</v>
-      </c>
-      <c r="O15" s="3">
-        <v>0</v>
-      </c>
-      <c r="P15" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="3">
-        <v>0</v>
-      </c>
-      <c r="R15" s="3">
-        <v>0</v>
-      </c>
-      <c r="S15" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" customHeight="1" spans="3:3">
-      <c r="C16" s="4"/>
+      <c r="F16" s="3">
+        <v>0</v>
+      </c>
+      <c r="G16" s="3">
+        <v>0</v>
+      </c>
+      <c r="H16" s="3">
+        <v>0</v>
+      </c>
+      <c r="I16" s="3">
+        <v>0</v>
+      </c>
+      <c r="J16" s="3">
+        <v>0</v>
+      </c>
+      <c r="K16" s="3">
+        <v>0</v>
+      </c>
+      <c r="L16" s="3">
+        <v>0</v>
+      </c>
+      <c r="M16" s="3">
+        <v>0</v>
+      </c>
+      <c r="N16" s="3">
+        <v>0</v>
+      </c>
+      <c r="O16" s="3">
+        <v>0</v>
+      </c>
+      <c r="P16" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="3">
+        <v>0</v>
+      </c>
+      <c r="R16" s="3">
+        <v>0</v>
+      </c>
+      <c r="S16" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="17" customHeight="1" spans="3:3">
       <c r="C17" s="4"/>
@@ -2387,8 +2462,8 @@
     <row r="19" customHeight="1" spans="3:3">
       <c r="C19" s="4"/>
     </row>
-    <row r="21" customHeight="1" spans="3:3">
-      <c r="C21" s="4"/>
+    <row r="20" customHeight="1" spans="3:3">
+      <c r="C20" s="4"/>
     </row>
     <row r="22" customHeight="1" spans="3:3">
       <c r="C22" s="4"/>
@@ -2404,6 +2479,9 @@
     </row>
     <row r="26" customHeight="1" spans="3:3">
       <c r="C26" s="4"/>
+    </row>
+    <row r="27" customHeight="1" spans="3:3">
+      <c r="C27" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SERVER/Common/Data/excel/UnitDefine.xlsx
+++ b/SERVER/Common/Data/excel/UnitDefine.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22700" windowHeight="6640"/>
+    <workbookView windowWidth="22700" windowHeight="6630"/>
   </bookViews>
   <sheets>
     <sheet name="UnitDefine" sheetId="1" r:id="rId1"/>
@@ -1231,8 +1231,8 @@
   <sheetPr/>
   <dimension ref="A1:AA27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1"/>
@@ -1241,7 +1241,7 @@
     <col min="2" max="2" width="12.125" style="3" customWidth="1"/>
     <col min="3" max="3" width="34.375" style="3" customWidth="1"/>
     <col min="4" max="4" width="13.25" style="3" customWidth="1"/>
-    <col min="5" max="5" width="51.0833333333333" style="3" customWidth="1"/>
+    <col min="5" max="5" width="30.5833333333333" style="3" customWidth="1"/>
     <col min="6" max="6" width="9.125" style="3" customWidth="1"/>
     <col min="7" max="15" width="9" style="3"/>
     <col min="16" max="16" width="10" style="3" customWidth="1"/>

--- a/SERVER/Common/Data/excel/UnitDefine.xlsx
+++ b/SERVER/Common/Data/excel/UnitDefine.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22700" windowHeight="6630"/>
+    <workbookView windowWidth="22920" windowHeight="7190"/>
   </bookViews>
   <sheets>
     <sheet name="UnitDefine" sheetId="1" r:id="rId1"/>
@@ -1231,8 +1231,8 @@
   <sheetPr/>
   <dimension ref="A1:AA27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1"/>
@@ -1549,16 +1549,16 @@
         <v>0</v>
       </c>
       <c r="O4" s="3">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="P4" s="3">
-        <v>150</v>
+        <v>1.5</v>
       </c>
       <c r="Q4" s="3">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="R4" s="3">
-        <v>5</v>
+        <v>0.05</v>
       </c>
       <c r="S4" s="3">
         <v>1</v>
@@ -1624,16 +1624,16 @@
         <v>2</v>
       </c>
       <c r="O5" s="3">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="P5" s="3">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="Q5" s="3">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="R5" s="3">
-        <v>100</v>
+        <v>0.05</v>
       </c>
       <c r="S5" s="3">
         <v>100</v>
@@ -1701,16 +1701,16 @@
         <v>10</v>
       </c>
       <c r="O6" s="3">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="P6" s="3">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="Q6" s="3">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="R6" s="3">
-        <v>100</v>
+        <v>0.05</v>
       </c>
       <c r="S6" s="3">
         <v>100</v>
@@ -1778,16 +1778,16 @@
         <v>15</v>
       </c>
       <c r="O7" s="3">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="P7" s="3">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="Q7" s="3">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="R7" s="3">
-        <v>100</v>
+        <v>0.05</v>
       </c>
       <c r="S7" s="3">
         <v>100</v>
@@ -1855,16 +1855,16 @@
         <v>20</v>
       </c>
       <c r="O8" s="3">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="P8" s="3">
-        <v>150</v>
+        <v>1.5</v>
       </c>
       <c r="Q8" s="3">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="R8" s="3">
-        <v>5</v>
+        <v>0.05</v>
       </c>
       <c r="S8" s="3">
         <v>1</v>
@@ -1935,16 +1935,16 @@
         <v>20</v>
       </c>
       <c r="O9" s="3">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="P9" s="3">
-        <v>150</v>
+        <v>1.5</v>
       </c>
       <c r="Q9" s="3">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="R9" s="3">
-        <v>5</v>
+        <v>0.05</v>
       </c>
       <c r="S9" s="3">
         <v>1</v>
@@ -2012,16 +2012,16 @@
         <v>100</v>
       </c>
       <c r="O10" s="3">
-        <v>100</v>
+        <v>0.01</v>
       </c>
       <c r="P10" s="3">
-        <v>150</v>
+        <v>1.5</v>
       </c>
       <c r="Q10" s="3">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="R10" s="3">
-        <v>5</v>
+        <v>0.05</v>
       </c>
       <c r="S10" s="3">
         <v>1</v>
@@ -2089,16 +2089,16 @@
         <v>100</v>
       </c>
       <c r="O11" s="3">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="P11" s="3">
-        <v>150</v>
+        <v>1.5</v>
       </c>
       <c r="Q11" s="3">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="R11" s="3">
-        <v>5</v>
+        <v>0.05</v>
       </c>
       <c r="S11" s="3">
         <v>1</v>
@@ -2166,10 +2166,10 @@
         <v>100</v>
       </c>
       <c r="O12" s="3">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="P12" s="3">
-        <v>150</v>
+        <v>1.5</v>
       </c>
       <c r="Q12" s="3">
         <v>0</v>

--- a/SERVER/Common/Data/excel/UnitDefine.xlsx
+++ b/SERVER/Common/Data/excel/UnitDefine.xlsx
@@ -4,17 +4,30 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22920" windowHeight="7190"/>
+    <workbookView windowWidth="25600" windowHeight="12790"/>
   </bookViews>
   <sheets>
     <sheet name="UnitDefine" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="85">
   <si>
     <t>ID</t>
   </si>
@@ -97,6 +110,9 @@
     <t>Ai</t>
   </si>
   <si>
+    <t>HurtTime</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
@@ -185,6 +201,9 @@
   </si>
   <si>
     <t>Ai名称</t>
+  </si>
+  <si>
+    <t>受伤时间</t>
   </si>
   <si>
     <t>剑士</t>
@@ -268,7 +287,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -292,34 +311,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -333,14 +324,6 @@
       <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -380,6 +363,21 @@
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -430,7 +428,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -451,49 +470,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -505,97 +608,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -644,21 +663,6 @@
       <top/>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -692,6 +696,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -748,148 +767,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -913,52 +932,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1229,10 +1248,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AA27"/>
+  <dimension ref="A1:AB27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <pane xSplit="2" topLeftCell="M1" activePane="topRight" state="frozen"/>
+      <selection/>
+      <selection pane="topRight" activeCell="AB14" sqref="AB14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1"/>
@@ -1256,7 +1277,7 @@
     <col min="31" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:27">
+    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:28">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1338,171 +1359,180 @@
       <c r="AA1" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="AB1" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="2" s="1" customFormat="1" customHeight="1" spans="1:27">
+    <row r="2" s="1" customFormat="1" customHeight="1" spans="1:28">
       <c r="A2" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="G2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G2" s="1" t="s">
+      <c r="K2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AA2" s="1" t="s">
-        <v>28</v>
+      <c r="AB2" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" customHeight="1" spans="1:27">
+    <row r="3" s="2" customFormat="1" customHeight="1" spans="1:28">
       <c r="A3" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="W3" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="X3" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="Y3" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Z3" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AA3" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
+      </c>
+      <c r="AB3" s="2" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:27">
@@ -1510,16 +1540,16 @@
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F4" s="3">
         <v>5</v>
@@ -1591,10 +1621,10 @@
         <v>1001</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F5" s="3">
         <v>4</v>
@@ -1660,7 +1690,7 @@
         <v>100</v>
       </c>
       <c r="AA5" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:27">
@@ -1668,10 +1698,10 @@
         <v>1002</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F6" s="3">
         <v>5</v>
@@ -1737,7 +1767,7 @@
         <v>100</v>
       </c>
       <c r="AA6" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:27">
@@ -1745,10 +1775,10 @@
         <v>1003</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>64</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>62</v>
       </c>
       <c r="F7" s="3">
         <v>6</v>
@@ -1814,7 +1844,7 @@
         <v>100</v>
       </c>
       <c r="AA7" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:27">
@@ -1822,10 +1852,10 @@
         <v>1004</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F8" s="3">
         <v>3</v>
@@ -1891,21 +1921,21 @@
         <v>0</v>
       </c>
       <c r="AA8" s="3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
-    <row r="9" customHeight="1" spans="1:27">
+    <row r="9" customHeight="1" spans="1:28">
       <c r="A9" s="3">
         <v>1005</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F9" s="3">
         <v>1</v>
@@ -1971,7 +2001,10 @@
         <v>0</v>
       </c>
       <c r="AA9" s="3" t="s">
-        <v>62</v>
+        <v>64</v>
+      </c>
+      <c r="AB9" s="3">
+        <v>0.3</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:27">
@@ -1979,10 +2012,10 @@
         <v>1006</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F10" s="3">
         <v>2</v>
@@ -2048,7 +2081,7 @@
         <v>0</v>
       </c>
       <c r="AA10" s="3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:27">
@@ -2056,10 +2089,10 @@
         <v>1007</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F11" s="3">
         <v>5</v>
@@ -2125,7 +2158,7 @@
         <v>0</v>
       </c>
       <c r="AA11" s="3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:27">
@@ -2133,10 +2166,10 @@
         <v>1008</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F12" s="3">
         <v>3</v>
@@ -2202,7 +2235,7 @@
         <v>0</v>
       </c>
       <c r="AA12" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:26">
@@ -2210,13 +2243,13 @@
         <v>2001</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F13" s="3">
         <v>1</v>
@@ -2287,13 +2320,13 @@
         <v>4001001</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
@@ -2343,16 +2376,16 @@
         <v>1001001</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F15" s="3">
         <v>0</v>
@@ -2402,13 +2435,13 @@
         <v>1002001</v>
       </c>
       <c r="B16" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>81</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>79</v>
       </c>
       <c r="F16" s="3">
         <v>0</v>

--- a/SERVER/Common/Data/excel/UnitDefine.xlsx
+++ b/SERVER/Common/Data/excel/UnitDefine.xlsx
@@ -1251,9 +1251,9 @@
   <dimension ref="A1:AB27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="M1" activePane="topRight" state="frozen"/>
+      <pane xSplit="2" topLeftCell="E1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="AB14" sqref="AB14"/>
+      <selection pane="topRight" activeCell="R18" sqref="R18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1"/>
@@ -1579,7 +1579,7 @@
         <v>0</v>
       </c>
       <c r="O4" s="3">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="P4" s="3">
         <v>1.5</v>
@@ -1974,7 +1974,7 @@
         <v>1</v>
       </c>
       <c r="R9" s="3">
-        <v>0.05</v>
+        <v>0.15</v>
       </c>
       <c r="S9" s="3">
         <v>1</v>

--- a/SERVER/Common/Data/excel/UnitDefine.xlsx
+++ b/SERVER/Common/Data/excel/UnitDefine.xlsx
@@ -1253,7 +1253,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="E1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="R18" sqref="R18"/>
+      <selection pane="topRight" activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1"/>
@@ -1941,7 +1941,7 @@
         <v>1</v>
       </c>
       <c r="G9" s="3">
-        <v>800</v>
+        <v>114514</v>
       </c>
       <c r="H9" s="3">
         <v>200</v>

--- a/SERVER/Common/Data/excel/UnitDefine.xlsx
+++ b/SERVER/Common/Data/excel/UnitDefine.xlsx
@@ -1253,7 +1253,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="E1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="H16" sqref="H16"/>
+      <selection pane="topRight" activeCell="N28" sqref="N28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1"/>
@@ -1383,10 +1383,10 @@
         <v>28</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>28</v>
@@ -1395,16 +1395,16 @@
         <v>28</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="O2" s="1" t="s">
         <v>30</v>
@@ -1419,7 +1419,7 @@
         <v>30</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="T2" s="1" t="s">
         <v>30</v>
@@ -1555,7 +1555,7 @@
         <v>5</v>
       </c>
       <c r="G4" s="3">
-        <v>500</v>
+        <v>11451</v>
       </c>
       <c r="H4" s="3">
         <v>300</v>
@@ -1941,7 +1941,7 @@
         <v>1</v>
       </c>
       <c r="G9" s="3">
-        <v>114514</v>
+        <v>1145</v>
       </c>
       <c r="H9" s="3">
         <v>200</v>

--- a/SERVER/Common/Data/excel/UnitDefine.xlsx
+++ b/SERVER/Common/Data/excel/UnitDefine.xlsx
@@ -1251,9 +1251,9 @@
   <dimension ref="A1:AB27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="E1" activePane="topRight" state="frozen"/>
+      <pane xSplit="2" topLeftCell="M1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="N28" sqref="N28"/>
+      <selection pane="topRight" activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1"/>
@@ -1941,7 +1941,7 @@
         <v>1</v>
       </c>
       <c r="G9" s="3">
-        <v>1145</v>
+        <v>1000</v>
       </c>
       <c r="H9" s="3">
         <v>200</v>
@@ -1992,7 +1992,7 @@
         <v>0</v>
       </c>
       <c r="X9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y9" s="3">
         <v>0</v>

--- a/SERVER/Common/Data/excel/UnitDefine.xlsx
+++ b/SERVER/Common/Data/excel/UnitDefine.xlsx
@@ -1251,9 +1251,9 @@
   <dimension ref="A1:AB27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="M1" activePane="topRight" state="frozen"/>
+      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="G18" sqref="G18"/>
+      <selection pane="topRight" activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1"/>

--- a/SERVER/Common/Data/excel/UnitDefine.xlsx
+++ b/SERVER/Common/Data/excel/UnitDefine.xlsx
@@ -4,30 +4,17 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="12790"/>
+    <workbookView windowWidth="22920" windowHeight="7190"/>
   </bookViews>
   <sheets>
     <sheet name="UnitDefine" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="89">
   <si>
     <t>ID</t>
   </si>
@@ -89,6 +76,9 @@
     <t>HpSteal</t>
   </si>
   <si>
+    <t>Con</t>
+  </si>
+  <si>
     <t>Str</t>
   </si>
   <si>
@@ -98,6 +88,9 @@
     <t>Agi</t>
   </si>
   <si>
+    <t>Gcon</t>
+  </si>
+  <si>
     <t>Gstr</t>
   </si>
   <si>
@@ -182,6 +175,9 @@
     <t>伤害吸血%</t>
   </si>
   <si>
+    <t>体质</t>
+  </si>
+  <si>
     <t>力量</t>
   </si>
   <si>
@@ -189,6 +185,9 @@
   </si>
   <si>
     <t>敏捷</t>
+  </si>
+  <si>
+    <t>体质成长</t>
   </si>
   <si>
     <t>力量成长</t>
@@ -287,7 +286,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -311,6 +310,34 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -324,6 +351,14 @@
       <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -363,21 +398,6 @@
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -428,28 +448,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -470,13 +469,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -494,24 +535,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -530,18 +577,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -554,36 +589,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -602,19 +613,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -663,6 +662,21 @@
       <top/>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -696,21 +710,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -767,148 +766,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -932,52 +931,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1248,12 +1247,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AB27"/>
+  <dimension ref="A1:AD27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <pane xSplit="2" topLeftCell="O1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="G11" sqref="G11"/>
+      <selection pane="topRight" activeCell="X13" sqref="X13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1"/>
@@ -1269,15 +1268,15 @@
     <col min="17" max="17" width="9" style="3"/>
     <col min="18" max="18" width="10.75" style="3" customWidth="1"/>
     <col min="19" max="20" width="12.625" style="3" customWidth="1"/>
-    <col min="21" max="23" width="9" style="3"/>
-    <col min="24" max="24" width="9" style="3" customWidth="1"/>
-    <col min="25" max="26" width="9" style="3"/>
-    <col min="27" max="27" width="12" customWidth="1"/>
-    <col min="28" max="29" width="9" style="3"/>
-    <col min="31" max="16384" width="9" style="3"/>
+    <col min="21" max="24" width="9" style="3"/>
+    <col min="25" max="26" width="9" style="3" customWidth="1"/>
+    <col min="27" max="28" width="9" style="3"/>
+    <col min="29" max="29" width="12" customWidth="1"/>
+    <col min="30" max="31" width="9" style="3"/>
+    <col min="33" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:28">
+    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:30">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1362,200 +1361,218 @@
       <c r="AB1" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="AC1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="2" s="1" customFormat="1" customHeight="1" spans="1:28">
+    <row r="2" s="1" customFormat="1" customHeight="1" spans="1:30">
       <c r="A2" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="O2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="P2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="T2" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Z2" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AB2" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" customHeight="1" spans="1:28">
+    <row r="3" s="2" customFormat="1" customHeight="1" spans="1:30">
       <c r="A3" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="W3" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="X3" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="Y3" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="Z3" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="AA3" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="AB3" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
+      </c>
+      <c r="AC3" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD3" s="2" t="s">
+        <v>62</v>
       </c>
     </row>
-    <row r="4" customHeight="1" spans="1:27">
+    <row r="4" customHeight="1" spans="1:29">
       <c r="A4" s="3">
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="F4" s="3">
         <v>5</v>
       </c>
       <c r="G4" s="3">
-        <v>11451</v>
+        <v>500</v>
       </c>
       <c r="H4" s="3">
         <v>300</v>
@@ -1600,31 +1617,37 @@
         <v>20</v>
       </c>
       <c r="V4" s="3">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="W4" s="3">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="X4" s="3">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="Y4" s="3">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="Z4" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="AA4" s="5"/>
+        <v>6</v>
+      </c>
+      <c r="AA4" s="3">
+        <v>3</v>
+      </c>
+      <c r="AB4" s="3">
+        <v>4</v>
+      </c>
+      <c r="AC4" s="5"/>
     </row>
-    <row r="5" customHeight="1" spans="1:27">
+    <row r="5" customHeight="1" spans="1:29">
       <c r="A5" s="3">
         <v>1001</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="F5" s="3">
         <v>4</v>
@@ -1666,42 +1689,48 @@
         <v>0.05</v>
       </c>
       <c r="S5" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T5" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U5" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V5" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W5" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X5" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y5" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="3">
-        <v>100</v>
-      </c>
-      <c r="AA5" s="5" t="s">
-        <v>64</v>
+        <v>0</v>
+      </c>
+      <c r="AA5" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="5" t="s">
+        <v>68</v>
       </c>
     </row>
-    <row r="6" customHeight="1" spans="1:27">
+    <row r="6" customHeight="1" spans="1:29">
       <c r="A6" s="3">
         <v>1002</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="F6" s="3">
         <v>5</v>
@@ -1743,42 +1772,48 @@
         <v>0.05</v>
       </c>
       <c r="S6" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T6" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U6" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V6" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W6" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X6" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y6" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="3">
-        <v>100</v>
-      </c>
-      <c r="AA6" s="5" t="s">
-        <v>64</v>
+        <v>0</v>
+      </c>
+      <c r="AA6" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="5" t="s">
+        <v>68</v>
       </c>
     </row>
-    <row r="7" customHeight="1" spans="1:27">
+    <row r="7" customHeight="1" spans="1:29">
       <c r="A7" s="3">
         <v>1003</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="F7" s="3">
         <v>6</v>
@@ -1820,42 +1855,48 @@
         <v>0.05</v>
       </c>
       <c r="S7" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T7" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U7" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V7" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W7" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X7" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y7" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="3">
-        <v>100</v>
-      </c>
-      <c r="AA7" s="5" t="s">
-        <v>64</v>
+        <v>0</v>
+      </c>
+      <c r="AA7" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="5" t="s">
+        <v>68</v>
       </c>
     </row>
-    <row r="8" customHeight="1" spans="1:27">
+    <row r="8" customHeight="1" spans="1:29">
       <c r="A8" s="3">
         <v>1004</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="F8" s="3">
         <v>3</v>
@@ -1920,22 +1961,28 @@
       <c r="Z8" s="3">
         <v>0</v>
       </c>
-      <c r="AA8" s="3" t="s">
-        <v>64</v>
+      <c r="AA8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="3" t="s">
+        <v>68</v>
       </c>
     </row>
-    <row r="9" customHeight="1" spans="1:28">
+    <row r="9" customHeight="1" spans="1:30">
       <c r="A9" s="3">
         <v>1005</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>68</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>64</v>
       </c>
       <c r="F9" s="3">
         <v>1</v>
@@ -1983,39 +2030,45 @@
         <v>0</v>
       </c>
       <c r="U9" s="3">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="V9" s="3">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="W9" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X9" s="3">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="Y9" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Z9" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA9" s="3" t="s">
-        <v>64</v>
+        <v>4</v>
+      </c>
+      <c r="AA9" s="3">
+        <v>1</v>
       </c>
       <c r="AB9" s="3">
+        <v>1</v>
+      </c>
+      <c r="AC9" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="AD9" s="3">
         <v>0.3</v>
       </c>
     </row>
-    <row r="10" customHeight="1" spans="1:27">
+    <row r="10" customHeight="1" spans="1:29">
       <c r="A10" s="3">
         <v>1006</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="F10" s="3">
         <v>2</v>
@@ -2080,19 +2133,25 @@
       <c r="Z10" s="3">
         <v>0</v>
       </c>
-      <c r="AA10" s="3" t="s">
-        <v>64</v>
+      <c r="AA10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="3" t="s">
+        <v>68</v>
       </c>
     </row>
-    <row r="11" customHeight="1" spans="1:27">
+    <row r="11" customHeight="1" spans="1:29">
       <c r="A11" s="3">
         <v>1007</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="F11" s="3">
         <v>5</v>
@@ -2157,19 +2216,25 @@
       <c r="Z11" s="3">
         <v>0</v>
       </c>
-      <c r="AA11" s="3" t="s">
-        <v>64</v>
+      <c r="AA11" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="3" t="s">
+        <v>68</v>
       </c>
     </row>
-    <row r="12" customHeight="1" spans="1:27">
+    <row r="12" customHeight="1" spans="1:29">
       <c r="A12" s="3">
         <v>1008</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="F12" s="3">
         <v>3</v>
@@ -2234,22 +2299,28 @@
       <c r="Z12" s="3">
         <v>0</v>
       </c>
-      <c r="AA12" s="5" t="s">
-        <v>64</v>
+      <c r="AA12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="5" t="s">
+        <v>68</v>
       </c>
     </row>
-    <row r="13" customHeight="1" spans="1:26">
+    <row r="13" customHeight="1" spans="1:28">
       <c r="A13" s="3">
         <v>2001</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="F13" s="3">
         <v>1</v>
@@ -2312,6 +2383,12 @@
         <v>0</v>
       </c>
       <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="3">
         <v>0</v>
       </c>
     </row>
@@ -2320,13 +2397,13 @@
         <v>4001001</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
@@ -2376,16 +2453,16 @@
         <v>1001001</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="F15" s="3">
         <v>0</v>
@@ -2435,13 +2512,13 @@
         <v>1002001</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="F16" s="3">
         <v>0</v>

--- a/SERVER/Common/Data/excel/UnitDefine.xlsx
+++ b/SERVER/Common/Data/excel/UnitDefine.xlsx
@@ -1252,7 +1252,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="O1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="X13" sqref="X13"/>
+      <selection pane="topRight" activeCell="AA9" sqref="AA9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1"/>
@@ -2042,7 +2042,7 @@
         <v>2</v>
       </c>
       <c r="Y9" s="3">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="Z9" s="3">
         <v>4</v>

--- a/SERVER/Common/Data/excel/UnitDefine.xlsx
+++ b/SERVER/Common/Data/excel/UnitDefine.xlsx
@@ -1252,7 +1252,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="O1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="AA9" sqref="AA9"/>
+      <selection pane="topRight" activeCell="AA12" sqref="AA12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1"/>
@@ -1617,7 +1617,7 @@
         <v>20</v>
       </c>
       <c r="V4" s="3">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="W4" s="3">
         <v>12</v>
@@ -2030,10 +2030,10 @@
         <v>0</v>
       </c>
       <c r="U9" s="3">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="V9" s="3">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="W9" s="3">
         <v>2</v>
@@ -2042,10 +2042,10 @@
         <v>2</v>
       </c>
       <c r="Y9" s="3">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="Z9" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AA9" s="3">
         <v>1</v>

--- a/SERVER/Common/Data/excel/UnitDefine.xlsx
+++ b/SERVER/Common/Data/excel/UnitDefine.xlsx
@@ -1250,9 +1250,9 @@
   <dimension ref="A1:AD27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="O1" activePane="topRight" state="frozen"/>
+      <pane xSplit="2" topLeftCell="M1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="AA12" sqref="AA12"/>
+      <selection pane="topRight" activeCell="AA11" sqref="AA11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1"/>
@@ -1261,7 +1261,7 @@
     <col min="2" max="2" width="12.125" style="3" customWidth="1"/>
     <col min="3" max="3" width="34.375" style="3" customWidth="1"/>
     <col min="4" max="4" width="13.25" style="3" customWidth="1"/>
-    <col min="5" max="5" width="30.5833333333333" style="3" customWidth="1"/>
+    <col min="5" max="5" width="54.5833333333333" style="3" customWidth="1"/>
     <col min="6" max="6" width="9.125" style="3" customWidth="1"/>
     <col min="7" max="15" width="9" style="3"/>
     <col min="16" max="16" width="10" style="3" customWidth="1"/>
@@ -2030,7 +2030,7 @@
         <v>0</v>
       </c>
       <c r="U9" s="3">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="V9" s="3">
         <v>10</v>
@@ -2042,10 +2042,10 @@
         <v>2</v>
       </c>
       <c r="Y9" s="3">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="Z9" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AA9" s="3">
         <v>1</v>

--- a/SERVER/Common/Data/excel/UnitDefine.xlsx
+++ b/SERVER/Common/Data/excel/UnitDefine.xlsx
@@ -4,12 +4,25 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22920" windowHeight="7190"/>
+    <workbookView windowWidth="25600" windowHeight="12790"/>
   </bookViews>
   <sheets>
     <sheet name="UnitDefine" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -286,7 +299,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -310,34 +323,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -351,14 +336,6 @@
       <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -398,6 +375,21 @@
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -448,7 +440,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -469,49 +482,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -523,97 +620,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -662,21 +675,6 @@
       <top/>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -710,6 +708,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -766,148 +779,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -931,52 +944,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1252,7 +1265,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="M1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="AA11" sqref="AA11"/>
+      <selection pane="topRight" activeCell="AD14" sqref="AD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1"/>
@@ -1552,7 +1565,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="4" customHeight="1" spans="1:29">
+    <row r="4" customHeight="1" spans="1:30">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -1638,6 +1651,9 @@
         <v>4</v>
       </c>
       <c r="AC4" s="5"/>
+      <c r="AD4" s="3">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="5" customHeight="1" spans="1:29">
       <c r="A5" s="3">

--- a/SERVER/Common/Data/excel/UnitDefine.xlsx
+++ b/SERVER/Common/Data/excel/UnitDefine.xlsx
@@ -1265,7 +1265,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="M1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="AD14" sqref="AD14"/>
+      <selection pane="topRight" activeCell="AC12" sqref="AC12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1"/>

--- a/SERVER/Common/Data/excel/UnitDefine.xlsx
+++ b/SERVER/Common/Data/excel/UnitDefine.xlsx
@@ -4,30 +4,17 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="12790"/>
+    <workbookView windowWidth="19720" windowHeight="7190"/>
   </bookViews>
   <sheets>
     <sheet name="UnitDefine" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="93">
   <si>
     <t>ID</t>
   </si>
@@ -119,6 +106,12 @@
     <t>HurtTime</t>
   </si>
   <si>
+    <t>DropExpBase</t>
+  </si>
+  <si>
+    <t>DropExpLevelFactor</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
@@ -216,6 +209,12 @@
   </si>
   <si>
     <t>受伤时间</t>
+  </si>
+  <si>
+    <t>基础经验</t>
+  </si>
+  <si>
+    <t>等级因子</t>
   </si>
   <si>
     <t>剑士</t>
@@ -299,7 +298,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -323,6 +322,34 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -336,6 +363,14 @@
       <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -375,21 +410,6 @@
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -440,28 +460,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -482,13 +481,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -506,24 +547,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -542,18 +589,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -566,36 +601,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -614,19 +625,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -675,6 +674,21 @@
       <top/>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -708,21 +722,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -779,152 +778,152 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -936,6 +935,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -944,52 +946,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1260,12 +1262,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AD27"/>
+  <dimension ref="A1:AF27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="M1" activePane="topRight" state="frozen"/>
+      <pane xSplit="2" topLeftCell="X1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="AC12" sqref="AC12"/>
+      <selection pane="topRight" activeCell="AE5" sqref="AE5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1"/>
@@ -1285,11 +1287,13 @@
     <col min="25" max="26" width="9" style="3" customWidth="1"/>
     <col min="27" max="28" width="9" style="3"/>
     <col min="29" max="29" width="12" customWidth="1"/>
-    <col min="30" max="31" width="9" style="3"/>
+    <col min="30" max="30" width="11.6666666666667" style="3" customWidth="1"/>
+    <col min="31" max="31" width="26.3333333333333" style="3" customWidth="1"/>
+    <col min="32" max="32" width="20.75" style="4" customWidth="1"/>
     <col min="33" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:30">
+    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:32">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1380,206 +1384,224 @@
       <c r="AD1" s="1" t="s">
         <v>29</v>
       </c>
+      <c r="AE1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="2" s="1" customFormat="1" customHeight="1" spans="1:30">
+    <row r="2" s="1" customFormat="1" customHeight="1" spans="1:32">
       <c r="A2" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="O2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="S2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="P2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="T2" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Z2" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AB2" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AC2" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="AD2" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" customHeight="1" spans="1:30">
+    <row r="3" s="2" customFormat="1" customHeight="1" spans="1:32">
       <c r="A3" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="W3" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="X3" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Y3" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="Z3" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AA3" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="AB3" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AC3" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="AD3" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
+      </c>
+      <c r="AE3" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF3" s="2" t="s">
+        <v>66</v>
       </c>
     </row>
-    <row r="4" customHeight="1" spans="1:30">
+    <row r="4" customHeight="1" spans="1:32">
       <c r="A4" s="3">
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="F4" s="3">
         <v>5</v>
@@ -1650,9 +1672,15 @@
       <c r="AB4" s="3">
         <v>4</v>
       </c>
-      <c r="AC4" s="5"/>
+      <c r="AC4" s="6"/>
       <c r="AD4" s="3">
         <v>0.1</v>
+      </c>
+      <c r="AE4" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF4" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:29">
@@ -1660,10 +1688,10 @@
         <v>1001</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F5" s="3">
         <v>4</v>
@@ -1734,8 +1762,8 @@
       <c r="AB5" s="3">
         <v>0</v>
       </c>
-      <c r="AC5" s="5" t="s">
-        <v>68</v>
+      <c r="AC5" s="6" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:29">
@@ -1743,10 +1771,10 @@
         <v>1002</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F6" s="3">
         <v>5</v>
@@ -1817,8 +1845,8 @@
       <c r="AB6" s="3">
         <v>0</v>
       </c>
-      <c r="AC6" s="5" t="s">
-        <v>68</v>
+      <c r="AC6" s="6" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:29">
@@ -1826,10 +1854,10 @@
         <v>1003</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F7" s="3">
         <v>6</v>
@@ -1900,8 +1928,8 @@
       <c r="AB7" s="3">
         <v>0</v>
       </c>
-      <c r="AC7" s="5" t="s">
-        <v>68</v>
+      <c r="AC7" s="6" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:29">
@@ -1909,10 +1937,10 @@
         <v>1004</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F8" s="3">
         <v>3</v>
@@ -1984,21 +2012,21 @@
         <v>0</v>
       </c>
       <c r="AC8" s="3" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
-    <row r="9" customHeight="1" spans="1:30">
+    <row r="9" customHeight="1" spans="1:32">
       <c r="A9" s="3">
         <v>1005</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>72</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>68</v>
       </c>
       <c r="F9" s="3">
         <v>1</v>
@@ -2070,10 +2098,16 @@
         <v>1</v>
       </c>
       <c r="AC9" s="3" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="AD9" s="3">
         <v>0.3</v>
+      </c>
+      <c r="AE9" s="3">
+        <v>30</v>
+      </c>
+      <c r="AF9" s="4">
+        <v>1.2</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:29">
@@ -2081,10 +2115,10 @@
         <v>1006</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F10" s="3">
         <v>2</v>
@@ -2156,7 +2190,7 @@
         <v>0</v>
       </c>
       <c r="AC10" s="3" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:29">
@@ -2164,10 +2198,10 @@
         <v>1007</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F11" s="3">
         <v>5</v>
@@ -2239,7 +2273,7 @@
         <v>0</v>
       </c>
       <c r="AC11" s="3" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:29">
@@ -2247,10 +2281,10 @@
         <v>1008</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F12" s="3">
         <v>3</v>
@@ -2321,8 +2355,8 @@
       <c r="AB12" s="3">
         <v>0</v>
       </c>
-      <c r="AC12" s="5" t="s">
-        <v>68</v>
+      <c r="AC12" s="6" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:28">
@@ -2330,13 +2364,13 @@
         <v>2001</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="F13" s="3">
         <v>1</v>
@@ -2413,13 +2447,13 @@
         <v>4001001</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
@@ -2469,16 +2503,16 @@
         <v>1001001</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="F15" s="3">
         <v>0</v>
@@ -2528,13 +2562,13 @@
         <v>1002001</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="F16" s="3">
         <v>0</v>
@@ -2580,34 +2614,34 @@
       </c>
     </row>
     <row r="17" customHeight="1" spans="3:3">
-      <c r="C17" s="4"/>
+      <c r="C17" s="5"/>
     </row>
     <row r="18" customHeight="1" spans="3:3">
-      <c r="C18" s="4"/>
+      <c r="C18" s="5"/>
     </row>
     <row r="19" customHeight="1" spans="3:3">
-      <c r="C19" s="4"/>
+      <c r="C19" s="5"/>
     </row>
     <row r="20" customHeight="1" spans="3:3">
-      <c r="C20" s="4"/>
+      <c r="C20" s="5"/>
     </row>
     <row r="22" customHeight="1" spans="3:3">
-      <c r="C22" s="4"/>
+      <c r="C22" s="5"/>
     </row>
     <row r="23" customHeight="1" spans="3:3">
-      <c r="C23" s="4"/>
+      <c r="C23" s="5"/>
     </row>
     <row r="24" customHeight="1" spans="3:3">
-      <c r="C24" s="4"/>
+      <c r="C24" s="5"/>
     </row>
     <row r="25" customHeight="1" spans="3:3">
-      <c r="C25" s="4"/>
+      <c r="C25" s="5"/>
     </row>
     <row r="26" customHeight="1" spans="3:3">
-      <c r="C26" s="4"/>
+      <c r="C26" s="5"/>
     </row>
     <row r="27" customHeight="1" spans="3:3">
-      <c r="C27" s="4"/>
+      <c r="C27" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SERVER/Common/Data/excel/UnitDefine.xlsx
+++ b/SERVER/Common/Data/excel/UnitDefine.xlsx
@@ -4,17 +4,30 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19720" windowHeight="7190"/>
+    <workbookView windowWidth="25600" windowHeight="12790"/>
   </bookViews>
   <sheets>
     <sheet name="UnitDefine" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="88">
   <si>
     <t>ID</t>
   </si>
@@ -229,34 +242,19 @@
     <t>近战物理系</t>
   </si>
   <si>
-    <t>幽灵士兵</t>
+    <t>地精男战士</t>
+  </si>
+  <si>
+    <t>Goblin Warrior Male</t>
   </si>
   <si>
     <t>Monster</t>
   </si>
   <si>
-    <t>地精萨满</t>
-  </si>
-  <si>
-    <t>地精酋长</t>
-  </si>
-  <si>
-    <t>地精女战士</t>
-  </si>
-  <si>
-    <t>地精男战士</t>
-  </si>
-  <si>
-    <t>Goblin Warrior Male</t>
-  </si>
-  <si>
-    <t>岩石傀儡</t>
-  </si>
-  <si>
-    <t>骷髅骑士</t>
-  </si>
-  <si>
-    <t>死灵法师</t>
+    <t>骷髅小兵</t>
+  </si>
+  <si>
+    <t>Character_Skeleton_Slave_01</t>
   </si>
   <si>
     <t>铁匠达萨贝</t>
@@ -298,7 +296,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -322,34 +320,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -363,14 +333,6 @@
       <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -410,6 +372,21 @@
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -460,7 +437,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -481,49 +479,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -535,97 +617,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -674,21 +672,6 @@
       <top/>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -722,6 +705,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -778,152 +776,152 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -935,9 +933,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -946,52 +941,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1262,12 +1257,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AF27"/>
+  <dimension ref="A1:AF21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="X1" activePane="topRight" state="frozen"/>
+      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="AE5" sqref="AE5"/>
+      <selection pane="topRight" activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1"/>
@@ -1289,7 +1284,7 @@
     <col min="29" max="29" width="12" customWidth="1"/>
     <col min="30" max="30" width="11.6666666666667" style="3" customWidth="1"/>
     <col min="31" max="31" width="26.3333333333333" style="3" customWidth="1"/>
-    <col min="32" max="32" width="20.75" style="4" customWidth="1"/>
+    <col min="32" max="32" width="20.75" style="3" customWidth="1"/>
     <col min="33" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
@@ -1672,231 +1667,258 @@
       <c r="AB4" s="3">
         <v>4</v>
       </c>
-      <c r="AC4" s="6"/>
+      <c r="AC4" s="5"/>
       <c r="AD4" s="3">
         <v>0.1</v>
       </c>
       <c r="AE4" s="3">
         <v>0</v>
       </c>
-      <c r="AF4" s="4">
+      <c r="AF4" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="5" customHeight="1" spans="1:29">
+    <row r="5" customHeight="1" spans="1:32">
       <c r="A5" s="3">
-        <v>1001</v>
+        <v>1005</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>71</v>
       </c>
+      <c r="C5" s="3" t="s">
+        <v>72</v>
+      </c>
       <c r="D5" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F5" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G5" s="3">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="H5" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="I5" s="3">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="J5" s="3">
         <v>0</v>
       </c>
       <c r="K5" s="3">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="L5" s="3">
         <v>0</v>
       </c>
       <c r="M5" s="3">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="N5" s="3">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="O5" s="3">
         <v>0.01</v>
       </c>
       <c r="P5" s="3">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="Q5" s="3">
         <v>1</v>
       </c>
       <c r="R5" s="3">
-        <v>0.05</v>
+        <v>0.15</v>
       </c>
       <c r="S5" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T5" s="3">
         <v>0</v>
       </c>
       <c r="U5" s="3">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="V5" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="W5" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X5" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y5" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="Z5" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AA5" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB5" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC5" s="6" t="s">
-        <v>72</v>
+        <v>1</v>
+      </c>
+      <c r="AC5" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD5" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="AE5" s="3">
+        <v>30</v>
+      </c>
+      <c r="AF5" s="3">
+        <v>1.2</v>
       </c>
     </row>
-    <row r="6" customHeight="1" spans="1:29">
+    <row r="6" customHeight="1" spans="1:32">
       <c r="A6" s="3">
-        <v>1002</v>
+        <v>1007</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>72</v>
-      </c>
       <c r="F6" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G6" s="3">
-        <v>400</v>
+        <v>2000</v>
       </c>
       <c r="H6" s="3">
         <v>200</v>
       </c>
       <c r="I6" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J6" s="3">
         <v>0</v>
       </c>
       <c r="K6" s="3">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="L6" s="3">
         <v>0</v>
       </c>
       <c r="M6" s="3">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="N6" s="3">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="O6" s="3">
         <v>0.01</v>
       </c>
       <c r="P6" s="3">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="Q6" s="3">
         <v>1</v>
       </c>
       <c r="R6" s="3">
-        <v>0.05</v>
+        <v>0.15</v>
       </c>
       <c r="S6" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T6" s="3">
         <v>0</v>
       </c>
       <c r="U6" s="3">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="V6" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="W6" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X6" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y6" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="Z6" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AA6" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB6" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC6" s="6" t="s">
-        <v>72</v>
+        <v>1</v>
+      </c>
+      <c r="AC6" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD6" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="AE6" s="3">
+        <v>30</v>
+      </c>
+      <c r="AF6" s="3">
+        <v>1.2</v>
       </c>
     </row>
-    <row r="7" customHeight="1" spans="1:29">
+    <row r="7" customHeight="1" spans="1:28">
       <c r="A7" s="3">
-        <v>1003</v>
+        <v>2001</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>74</v>
+        <v>76</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>77</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="F7" s="3">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G7" s="3">
-        <v>500</v>
+        <v>1</v>
       </c>
       <c r="H7" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="I7" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J7" s="3">
         <v>0</v>
       </c>
       <c r="K7" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="L7" s="3">
         <v>0</v>
       </c>
       <c r="M7" s="3">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="N7" s="3">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="O7" s="3">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="P7" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q7" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R7" s="3">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="S7" s="3">
         <v>0</v>
@@ -1928,720 +1950,207 @@
       <c r="AB7" s="3">
         <v>0</v>
       </c>
-      <c r="AC7" s="6" t="s">
-        <v>72</v>
-      </c>
     </row>
-    <row r="8" customHeight="1" spans="1:29">
+    <row r="8" customHeight="1" spans="1:19">
       <c r="A8" s="3">
-        <v>1004</v>
+        <v>4001001</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>72</v>
+        <v>80</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>81</v>
       </c>
       <c r="F8" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G8" s="3">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="H8" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="I8" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" s="3">
         <v>0</v>
       </c>
       <c r="K8" s="3">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="L8" s="3">
         <v>0</v>
       </c>
       <c r="M8" s="3">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="N8" s="3">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="O8" s="3">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="P8" s="3">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="Q8" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R8" s="3">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="S8" s="3">
-        <v>1</v>
-      </c>
-      <c r="T8" s="3">
-        <v>0</v>
-      </c>
-      <c r="U8" s="3">
-        <v>0</v>
-      </c>
-      <c r="V8" s="3">
-        <v>0</v>
-      </c>
-      <c r="W8" s="3">
-        <v>0</v>
-      </c>
-      <c r="X8" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y8" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z8" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA8" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB8" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC8" s="3" t="s">
-        <v>72</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9" customHeight="1" spans="1:32">
+    <row r="9" customHeight="1" spans="1:19">
       <c r="A9" s="3">
-        <v>1005</v>
+        <v>1001001</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>72</v>
+        <v>84</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>85</v>
       </c>
       <c r="F9" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" s="3">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="H9" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="I9" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J9" s="3">
         <v>0</v>
       </c>
       <c r="K9" s="3">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="L9" s="3">
         <v>0</v>
       </c>
       <c r="M9" s="3">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="N9" s="3">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="O9" s="3">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="P9" s="3">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="Q9" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R9" s="3">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="S9" s="3">
-        <v>1</v>
-      </c>
-      <c r="T9" s="3">
-        <v>0</v>
-      </c>
-      <c r="U9" s="3">
-        <v>30</v>
-      </c>
-      <c r="V9" s="3">
-        <v>10</v>
-      </c>
-      <c r="W9" s="3">
-        <v>2</v>
-      </c>
-      <c r="X9" s="3">
-        <v>2</v>
-      </c>
-      <c r="Y9" s="3">
-        <v>20</v>
-      </c>
-      <c r="Z9" s="3">
-        <v>4</v>
-      </c>
-      <c r="AA9" s="3">
-        <v>1</v>
-      </c>
-      <c r="AB9" s="3">
-        <v>1</v>
-      </c>
-      <c r="AC9" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="AD9" s="3">
-        <v>0.3</v>
-      </c>
-      <c r="AE9" s="3">
-        <v>30</v>
-      </c>
-      <c r="AF9" s="4">
-        <v>1.2</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10" customHeight="1" spans="1:29">
+    <row r="10" customHeight="1" spans="1:19">
       <c r="A10" s="3">
-        <v>1006</v>
+        <v>1002001</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>78</v>
+        <v>86</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>87</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="F10" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I10" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O10" s="3">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="P10" s="3">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="Q10" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R10" s="3">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="S10" s="3">
-        <v>1</v>
-      </c>
-      <c r="T10" s="3">
-        <v>0</v>
-      </c>
-      <c r="U10" s="3">
-        <v>0</v>
-      </c>
-      <c r="V10" s="3">
-        <v>0</v>
-      </c>
-      <c r="W10" s="3">
-        <v>0</v>
-      </c>
-      <c r="X10" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y10" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z10" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA10" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB10" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC10" s="3" t="s">
-        <v>72</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11" customHeight="1" spans="1:29">
-      <c r="A11" s="3">
-        <v>1007</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="F11" s="3">
-        <v>5</v>
-      </c>
-      <c r="G11" s="3">
-        <v>100</v>
-      </c>
-      <c r="H11" s="3">
-        <v>100</v>
-      </c>
-      <c r="I11" s="3">
-        <v>12</v>
-      </c>
-      <c r="J11" s="3">
-        <v>100</v>
-      </c>
-      <c r="K11" s="3">
-        <v>100</v>
-      </c>
-      <c r="L11" s="3">
-        <v>100</v>
-      </c>
-      <c r="M11" s="3">
-        <v>100</v>
-      </c>
-      <c r="N11" s="3">
-        <v>100</v>
-      </c>
-      <c r="O11" s="3">
-        <v>1</v>
-      </c>
-      <c r="P11" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="Q11" s="3">
-        <v>1</v>
-      </c>
-      <c r="R11" s="3">
-        <v>0.05</v>
-      </c>
-      <c r="S11" s="3">
-        <v>1</v>
-      </c>
-      <c r="T11" s="3">
-        <v>0</v>
-      </c>
-      <c r="U11" s="3">
-        <v>0</v>
-      </c>
-      <c r="V11" s="3">
-        <v>0</v>
-      </c>
-      <c r="W11" s="3">
-        <v>0</v>
-      </c>
-      <c r="X11" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y11" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z11" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA11" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB11" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC11" s="3" t="s">
-        <v>72</v>
-      </c>
+    <row r="11" customHeight="1" spans="3:3">
+      <c r="C11" s="4"/>
     </row>
-    <row r="12" customHeight="1" spans="1:29">
-      <c r="A12" s="3">
-        <v>1008</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="F12" s="3">
-        <v>3</v>
-      </c>
-      <c r="G12" s="3">
-        <v>100</v>
-      </c>
-      <c r="H12" s="3">
-        <v>100</v>
-      </c>
-      <c r="I12" s="3">
-        <v>15</v>
-      </c>
-      <c r="J12" s="3">
-        <v>100</v>
-      </c>
-      <c r="K12" s="3">
-        <v>100</v>
-      </c>
-      <c r="L12" s="3">
-        <v>100</v>
-      </c>
-      <c r="M12" s="3">
-        <v>100</v>
-      </c>
-      <c r="N12" s="3">
-        <v>100</v>
-      </c>
-      <c r="O12" s="3">
-        <v>1</v>
-      </c>
-      <c r="P12" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="Q12" s="3">
-        <v>0</v>
-      </c>
-      <c r="R12" s="3">
-        <v>0</v>
-      </c>
-      <c r="S12" s="3">
-        <v>0</v>
-      </c>
-      <c r="T12" s="3">
-        <v>0</v>
-      </c>
-      <c r="U12" s="3">
-        <v>0</v>
-      </c>
-      <c r="V12" s="3">
-        <v>0</v>
-      </c>
-      <c r="W12" s="3">
-        <v>0</v>
-      </c>
-      <c r="X12" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y12" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z12" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA12" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB12" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC12" s="6" t="s">
-        <v>72</v>
-      </c>
+    <row r="12" customHeight="1" spans="3:3">
+      <c r="C12" s="4"/>
     </row>
-    <row r="13" customHeight="1" spans="1:28">
-      <c r="A13" s="3">
-        <v>2001</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="F13" s="3">
-        <v>1</v>
-      </c>
-      <c r="G13" s="3">
-        <v>1</v>
-      </c>
-      <c r="H13" s="3">
-        <v>0</v>
-      </c>
-      <c r="I13" s="3">
-        <v>1</v>
-      </c>
-      <c r="J13" s="3">
-        <v>0</v>
-      </c>
-      <c r="K13" s="3">
-        <v>0</v>
-      </c>
-      <c r="L13" s="3">
-        <v>0</v>
-      </c>
-      <c r="M13" s="3">
-        <v>0</v>
-      </c>
-      <c r="N13" s="3">
-        <v>0</v>
-      </c>
-      <c r="O13" s="3">
-        <v>0</v>
-      </c>
-      <c r="P13" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="3">
-        <v>0</v>
-      </c>
-      <c r="R13" s="3">
-        <v>0</v>
-      </c>
-      <c r="S13" s="3">
-        <v>0</v>
-      </c>
-      <c r="T13" s="3">
-        <v>0</v>
-      </c>
-      <c r="U13" s="3">
-        <v>0</v>
-      </c>
-      <c r="V13" s="3">
-        <v>0</v>
-      </c>
-      <c r="W13" s="3">
-        <v>0</v>
-      </c>
-      <c r="X13" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y13" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z13" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA13" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB13" s="3">
-        <v>0</v>
-      </c>
+    <row r="13" customHeight="1" spans="3:3">
+      <c r="C13" s="4"/>
     </row>
-    <row r="14" customHeight="1" spans="1:19">
-      <c r="A14" s="3">
-        <v>4001001</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
+    <row r="14" customHeight="1" spans="3:3">
+      <c r="C14" s="4"/>
     </row>
-    <row r="15" customHeight="1" spans="1:19">
-      <c r="A15" s="3">
-        <v>1001001</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="F15" s="3">
-        <v>0</v>
-      </c>
-      <c r="G15" s="3">
-        <v>0</v>
-      </c>
-      <c r="H15" s="3">
-        <v>0</v>
-      </c>
-      <c r="I15" s="3">
-        <v>0</v>
-      </c>
-      <c r="J15" s="3">
-        <v>0</v>
-      </c>
-      <c r="K15" s="3">
-        <v>0</v>
-      </c>
-      <c r="L15" s="3">
-        <v>0</v>
-      </c>
-      <c r="M15" s="3">
-        <v>0</v>
-      </c>
-      <c r="N15" s="3">
-        <v>0</v>
-      </c>
-      <c r="O15" s="3">
-        <v>0</v>
-      </c>
-      <c r="P15" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="3">
-        <v>0</v>
-      </c>
-      <c r="R15" s="3">
-        <v>0</v>
-      </c>
-      <c r="S15" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" customHeight="1" spans="1:19">
-      <c r="A16" s="3">
-        <v>1002001</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="F16" s="3">
-        <v>0</v>
-      </c>
-      <c r="G16" s="3">
-        <v>0</v>
-      </c>
-      <c r="H16" s="3">
-        <v>0</v>
-      </c>
-      <c r="I16" s="3">
-        <v>0</v>
-      </c>
-      <c r="J16" s="3">
-        <v>0</v>
-      </c>
-      <c r="K16" s="3">
-        <v>0</v>
-      </c>
-      <c r="L16" s="3">
-        <v>0</v>
-      </c>
-      <c r="M16" s="3">
-        <v>0</v>
-      </c>
-      <c r="N16" s="3">
-        <v>0</v>
-      </c>
-      <c r="O16" s="3">
-        <v>0</v>
-      </c>
-      <c r="P16" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="3">
-        <v>0</v>
-      </c>
-      <c r="R16" s="3">
-        <v>0</v>
-      </c>
-      <c r="S16" s="3">
-        <v>0</v>
-      </c>
+    <row r="16" customHeight="1" spans="3:3">
+      <c r="C16" s="4"/>
     </row>
     <row r="17" customHeight="1" spans="3:3">
-      <c r="C17" s="5"/>
+      <c r="C17" s="4"/>
     </row>
     <row r="18" customHeight="1" spans="3:3">
-      <c r="C18" s="5"/>
+      <c r="C18" s="4"/>
     </row>
     <row r="19" customHeight="1" spans="3:3">
-      <c r="C19" s="5"/>
+      <c r="C19" s="4"/>
     </row>
     <row r="20" customHeight="1" spans="3:3">
-      <c r="C20" s="5"/>
+      <c r="C20" s="4"/>
     </row>
-    <row r="22" customHeight="1" spans="3:3">
-      <c r="C22" s="5"/>
-    </row>
-    <row r="23" customHeight="1" spans="3:3">
-      <c r="C23" s="5"/>
-    </row>
-    <row r="24" customHeight="1" spans="3:3">
-      <c r="C24" s="5"/>
-    </row>
-    <row r="25" customHeight="1" spans="3:3">
-      <c r="C25" s="5"/>
-    </row>
-    <row r="26" customHeight="1" spans="3:3">
-      <c r="C26" s="5"/>
-    </row>
-    <row r="27" customHeight="1" spans="3:3">
-      <c r="C27" s="5"/>
+    <row r="21" customHeight="1" spans="3:3">
+      <c r="C21" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SERVER/Common/Data/excel/UnitDefine.xlsx
+++ b/SERVER/Common/Data/excel/UnitDefine.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19720" windowHeight="7190"/>
+    <workbookView windowWidth="24930" windowHeight="10610"/>
   </bookViews>
   <sheets>
     <sheet name="UnitDefine" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="94">
   <si>
     <t>ID</t>
   </si>
@@ -244,7 +244,7 @@
     <t>地精女战士</t>
   </si>
   <si>
-    <t>地精男战士</t>
+    <t>地精战士</t>
   </si>
   <si>
     <t>Goblin Warrior Male</t>
@@ -253,7 +253,10 @@
     <t>岩石傀儡</t>
   </si>
   <si>
-    <t>骷髅骑士</t>
+    <t>骷髅战士</t>
+  </si>
+  <si>
+    <t>Character_Skeleton_Slave_01</t>
   </si>
   <si>
     <t>死灵法师</t>
@@ -923,15 +926,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1265,9 +1265,9 @@
   <dimension ref="A1:AF27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="X1" activePane="topRight" state="frozen"/>
+      <pane xSplit="2" topLeftCell="U1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="AE5" sqref="AE5"/>
+      <selection pane="topRight" activeCell="AH15" sqref="AH15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1"/>
@@ -1288,8 +1288,8 @@
     <col min="27" max="28" width="9" style="3"/>
     <col min="29" max="29" width="12" customWidth="1"/>
     <col min="30" max="30" width="11.6666666666667" style="3" customWidth="1"/>
-    <col min="31" max="31" width="26.3333333333333" style="3" customWidth="1"/>
-    <col min="32" max="32" width="20.75" style="4" customWidth="1"/>
+    <col min="31" max="31" width="14.4166666666667" style="3" customWidth="1"/>
+    <col min="32" max="32" width="17" style="3" customWidth="1"/>
     <col min="33" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
@@ -1625,7 +1625,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N4" s="3">
         <v>0</v>
@@ -1672,14 +1672,14 @@
       <c r="AB4" s="3">
         <v>4</v>
       </c>
-      <c r="AC4" s="6"/>
+      <c r="AC4" s="5"/>
       <c r="AD4" s="3">
         <v>0.1</v>
       </c>
       <c r="AE4" s="3">
         <v>0</v>
       </c>
-      <c r="AF4" s="4">
+      <c r="AF4" s="3">
         <v>0</v>
       </c>
     </row>
@@ -1762,7 +1762,7 @@
       <c r="AB5" s="3">
         <v>0</v>
       </c>
-      <c r="AC5" s="6" t="s">
+      <c r="AC5" s="5" t="s">
         <v>72</v>
       </c>
     </row>
@@ -1845,7 +1845,7 @@
       <c r="AB6" s="3">
         <v>0</v>
       </c>
-      <c r="AC6" s="6" t="s">
+      <c r="AC6" s="5" t="s">
         <v>72</v>
       </c>
     </row>
@@ -1928,7 +1928,7 @@
       <c r="AB7" s="3">
         <v>0</v>
       </c>
-      <c r="AC7" s="6" t="s">
+      <c r="AC7" s="5" t="s">
         <v>72</v>
       </c>
     </row>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="M9" s="3">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="N9" s="3">
         <v>20</v>
@@ -2104,13 +2104,13 @@
         <v>0.3</v>
       </c>
       <c r="AE9" s="3">
-        <v>30</v>
-      </c>
-      <c r="AF9" s="4">
+        <v>20</v>
+      </c>
+      <c r="AF9" s="3">
         <v>1.2</v>
       </c>
     </row>
-    <row r="10" customHeight="1" spans="1:29">
+    <row r="10" customHeight="1" spans="1:32">
       <c r="A10" s="3">
         <v>1006</v>
       </c>
@@ -2130,22 +2130,22 @@
         <v>100</v>
       </c>
       <c r="I10" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K10" s="3">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="L10" s="3">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="M10" s="3">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="N10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O10" s="3">
         <v>0.01</v>
@@ -2166,31 +2166,40 @@
         <v>0</v>
       </c>
       <c r="U10" s="3">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="V10" s="3">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="W10" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X10" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Y10" s="3">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="Z10" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AA10" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB10" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC10" s="3" t="s">
         <v>72</v>
+      </c>
+      <c r="AD10" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="AE10" s="3">
+        <v>20</v>
+      </c>
+      <c r="AF10" s="3">
+        <v>1.3</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:29">
@@ -2200,14 +2209,17 @@
       <c r="B11" s="3" t="s">
         <v>79</v>
       </c>
+      <c r="C11" s="3" t="s">
+        <v>80</v>
+      </c>
       <c r="D11" s="3" t="s">
         <v>72</v>
       </c>
       <c r="F11" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G11" s="3">
-        <v>100</v>
+        <v>800</v>
       </c>
       <c r="H11" s="3">
         <v>100</v>
@@ -2231,7 +2243,7 @@
         <v>100</v>
       </c>
       <c r="O11" s="3">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="P11" s="3">
         <v>1.5</v>
@@ -2281,7 +2293,7 @@
         <v>1008</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>72</v>
@@ -2355,7 +2367,7 @@
       <c r="AB12" s="3">
         <v>0</v>
       </c>
-      <c r="AC12" s="6" t="s">
+      <c r="AC12" s="5" t="s">
         <v>72</v>
       </c>
     </row>
@@ -2364,13 +2376,13 @@
         <v>2001</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F13" s="3">
         <v>1</v>
@@ -2447,13 +2459,13 @@
         <v>4001001</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
@@ -2503,16 +2515,16 @@
         <v>1001001</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F15" s="3">
         <v>0</v>
@@ -2562,13 +2574,13 @@
         <v>1002001</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F16" s="3">
         <v>0</v>
@@ -2614,34 +2626,34 @@
       </c>
     </row>
     <row r="17" customHeight="1" spans="3:3">
-      <c r="C17" s="5"/>
+      <c r="C17" s="4"/>
     </row>
     <row r="18" customHeight="1" spans="3:3">
-      <c r="C18" s="5"/>
+      <c r="C18" s="4"/>
     </row>
     <row r="19" customHeight="1" spans="3:3">
-      <c r="C19" s="5"/>
+      <c r="C19" s="4"/>
     </row>
     <row r="20" customHeight="1" spans="3:3">
-      <c r="C20" s="5"/>
+      <c r="C20" s="4"/>
     </row>
     <row r="22" customHeight="1" spans="3:3">
-      <c r="C22" s="5"/>
+      <c r="C22" s="4"/>
     </row>
     <row r="23" customHeight="1" spans="3:3">
-      <c r="C23" s="5"/>
+      <c r="C23" s="4"/>
     </row>
     <row r="24" customHeight="1" spans="3:3">
-      <c r="C24" s="5"/>
+      <c r="C24" s="4"/>
     </row>
     <row r="25" customHeight="1" spans="3:3">
-      <c r="C25" s="5"/>
+      <c r="C25" s="4"/>
     </row>
     <row r="26" customHeight="1" spans="3:3">
-      <c r="C26" s="5"/>
+      <c r="C26" s="4"/>
     </row>
     <row r="27" customHeight="1" spans="3:3">
-      <c r="C27" s="5"/>
+      <c r="C27" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SERVER/Common/Data/excel/UnitDefine.xlsx
+++ b/SERVER/Common/Data/excel/UnitDefine.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="90">
   <si>
     <t>ID</t>
   </si>
@@ -255,6 +255,12 @@
   </si>
   <si>
     <t>Character_Skeleton_Slave_01</t>
+  </si>
+  <si>
+    <t>骷髅骑士</t>
+  </si>
+  <si>
+    <t>Character_Skeleton_Knight</t>
   </si>
   <si>
     <t>铁匠达萨贝</t>
@@ -1257,12 +1263,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AF21"/>
+  <dimension ref="A1:AF22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="C13" sqref="C13"/>
+      <selection pane="topRight" activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1"/>
@@ -1403,7 +1409,7 @@
         <v>33</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>32</v>
@@ -1775,7 +1781,7 @@
     </row>
     <row r="6" customHeight="1" spans="1:32">
       <c r="A6" s="3">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>74</v>
@@ -1787,7 +1793,7 @@
         <v>73</v>
       </c>
       <c r="F6" s="3">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="G6" s="3">
         <v>2000</v>
@@ -1868,9 +1874,9 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="7" customHeight="1" spans="1:28">
+    <row r="7" customHeight="1" spans="1:32">
       <c r="A7" s="3">
-        <v>2001</v>
+        <v>1007</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>76</v>
@@ -1879,102 +1885,114 @@
         <v>77</v>
       </c>
       <c r="D7" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F7" s="3">
+        <v>3</v>
+      </c>
+      <c r="G7" s="3">
+        <v>2000</v>
+      </c>
+      <c r="H7" s="3">
+        <v>200</v>
+      </c>
+      <c r="I7" s="3">
+        <v>1</v>
+      </c>
+      <c r="J7" s="3">
+        <v>0</v>
+      </c>
+      <c r="K7" s="3">
+        <v>100</v>
+      </c>
+      <c r="L7" s="3">
+        <v>0</v>
+      </c>
+      <c r="M7" s="3">
+        <v>30</v>
+      </c>
+      <c r="N7" s="3">
+        <v>30</v>
+      </c>
+      <c r="O7" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="P7" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="Q7" s="3">
+        <v>1</v>
+      </c>
+      <c r="R7" s="3">
+        <v>0.15</v>
+      </c>
+      <c r="S7" s="3">
+        <v>1</v>
+      </c>
+      <c r="T7" s="3">
+        <v>0</v>
+      </c>
+      <c r="U7" s="3">
+        <v>30</v>
+      </c>
+      <c r="V7" s="3">
+        <v>10</v>
+      </c>
+      <c r="W7" s="3">
+        <v>2</v>
+      </c>
+      <c r="X7" s="3">
+        <v>2</v>
+      </c>
+      <c r="Y7" s="3">
+        <v>20</v>
+      </c>
+      <c r="Z7" s="3">
+        <v>4</v>
+      </c>
+      <c r="AA7" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB7" s="3">
+        <v>1</v>
+      </c>
+      <c r="AC7" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD7" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="AE7" s="3">
+        <v>30</v>
+      </c>
+      <c r="AF7" s="3">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="1:28">
+      <c r="A8" s="3">
+        <v>2001</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="F7" s="3">
-        <v>1</v>
-      </c>
-      <c r="G7" s="3">
-        <v>1</v>
-      </c>
-      <c r="H7" s="3">
-        <v>0</v>
-      </c>
-      <c r="I7" s="3">
-        <v>1</v>
-      </c>
-      <c r="J7" s="3">
-        <v>0</v>
-      </c>
-      <c r="K7" s="3">
-        <v>0</v>
-      </c>
-      <c r="L7" s="3">
-        <v>0</v>
-      </c>
-      <c r="M7" s="3">
-        <v>0</v>
-      </c>
-      <c r="N7" s="3">
-        <v>0</v>
-      </c>
-      <c r="O7" s="3">
-        <v>0</v>
-      </c>
-      <c r="P7" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="3">
-        <v>0</v>
-      </c>
-      <c r="R7" s="3">
-        <v>0</v>
-      </c>
-      <c r="S7" s="3">
-        <v>0</v>
-      </c>
-      <c r="T7" s="3">
-        <v>0</v>
-      </c>
-      <c r="U7" s="3">
-        <v>0</v>
-      </c>
-      <c r="V7" s="3">
-        <v>0</v>
-      </c>
-      <c r="W7" s="3">
-        <v>0</v>
-      </c>
-      <c r="X7" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB7" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" customHeight="1" spans="1:19">
-      <c r="A8" s="3">
-        <v>4001001</v>
-      </c>
-      <c r="B8" s="3" t="s">
+      <c r="C8" s="3" t="s">
         <v>79</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>81</v>
-      </c>
       <c r="F8" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8" s="3">
         <v>0</v>
       </c>
       <c r="I8" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" s="3">
         <v>0</v>
@@ -2004,24 +2022,48 @@
         <v>0</v>
       </c>
       <c r="S8" s="3">
+        <v>0</v>
+      </c>
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+      <c r="U8" s="3">
+        <v>0</v>
+      </c>
+      <c r="V8" s="3">
+        <v>0</v>
+      </c>
+      <c r="W8" s="3">
+        <v>0</v>
+      </c>
+      <c r="X8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:19">
       <c r="A9" s="3">
-        <v>1001001</v>
+        <v>4001001</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="E9" s="3" t="s">
         <v>83</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>85</v>
       </c>
       <c r="F9" s="3">
         <v>0</v>
@@ -2068,62 +2110,118 @@
     </row>
     <row r="10" customHeight="1" spans="1:19">
       <c r="A10" s="3">
+        <v>1001001</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="F10" s="3">
+        <v>0</v>
+      </c>
+      <c r="G10" s="3">
+        <v>0</v>
+      </c>
+      <c r="H10" s="3">
+        <v>0</v>
+      </c>
+      <c r="I10" s="3">
+        <v>0</v>
+      </c>
+      <c r="J10" s="3">
+        <v>0</v>
+      </c>
+      <c r="K10" s="3">
+        <v>0</v>
+      </c>
+      <c r="L10" s="3">
+        <v>0</v>
+      </c>
+      <c r="M10" s="3">
+        <v>0</v>
+      </c>
+      <c r="N10" s="3">
+        <v>0</v>
+      </c>
+      <c r="O10" s="3">
+        <v>0</v>
+      </c>
+      <c r="P10" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>0</v>
+      </c>
+      <c r="R10" s="3">
+        <v>0</v>
+      </c>
+      <c r="S10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" customHeight="1" spans="1:19">
+      <c r="A11" s="3">
         <v>1002001</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B11" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="F10" s="3">
-        <v>0</v>
-      </c>
-      <c r="G10" s="3">
-        <v>0</v>
-      </c>
-      <c r="H10" s="3">
-        <v>0</v>
-      </c>
-      <c r="I10" s="3">
-        <v>0</v>
-      </c>
-      <c r="J10" s="3">
-        <v>0</v>
-      </c>
-      <c r="K10" s="3">
-        <v>0</v>
-      </c>
-      <c r="L10" s="3">
-        <v>0</v>
-      </c>
-      <c r="M10" s="3">
-        <v>0</v>
-      </c>
-      <c r="N10" s="3">
-        <v>0</v>
-      </c>
-      <c r="O10" s="3">
-        <v>0</v>
-      </c>
-      <c r="P10" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="3">
-        <v>0</v>
-      </c>
-      <c r="R10" s="3">
-        <v>0</v>
-      </c>
-      <c r="S10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" customHeight="1" spans="3:3">
-      <c r="C11" s="4"/>
+      <c r="F11" s="3">
+        <v>0</v>
+      </c>
+      <c r="G11" s="3">
+        <v>0</v>
+      </c>
+      <c r="H11" s="3">
+        <v>0</v>
+      </c>
+      <c r="I11" s="3">
+        <v>0</v>
+      </c>
+      <c r="J11" s="3">
+        <v>0</v>
+      </c>
+      <c r="K11" s="3">
+        <v>0</v>
+      </c>
+      <c r="L11" s="3">
+        <v>0</v>
+      </c>
+      <c r="M11" s="3">
+        <v>0</v>
+      </c>
+      <c r="N11" s="3">
+        <v>0</v>
+      </c>
+      <c r="O11" s="3">
+        <v>0</v>
+      </c>
+      <c r="P11" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="3">
+        <v>0</v>
+      </c>
+      <c r="R11" s="3">
+        <v>0</v>
+      </c>
+      <c r="S11" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" customHeight="1" spans="3:3">
       <c r="C12" s="4"/>
@@ -2134,8 +2232,8 @@
     <row r="14" customHeight="1" spans="3:3">
       <c r="C14" s="4"/>
     </row>
-    <row r="16" customHeight="1" spans="3:3">
-      <c r="C16" s="4"/>
+    <row r="15" customHeight="1" spans="3:3">
+      <c r="C15" s="4"/>
     </row>
     <row r="17" customHeight="1" spans="3:3">
       <c r="C17" s="4"/>
@@ -2152,6 +2250,9 @@
     <row r="21" customHeight="1" spans="3:3">
       <c r="C21" s="4"/>
     </row>
+    <row r="22" customHeight="1" spans="3:3">
+      <c r="C22" s="4"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/SERVER/Common/Data/excel/UnitDefine.xlsx
+++ b/SERVER/Common/Data/excel/UnitDefine.xlsx
@@ -1265,10 +1265,10 @@
   <sheetPr/>
   <dimension ref="A1:AF22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="R1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="G15" sqref="G15"/>
+      <selection pane="topRight" activeCell="AB9" sqref="AB9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1"/>
@@ -1620,7 +1620,7 @@
         <v>0</v>
       </c>
       <c r="K4" s="3">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="L4" s="3">
         <v>0</v>
@@ -1644,7 +1644,7 @@
         <v>0.05</v>
       </c>
       <c r="S4" s="3">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="T4" s="3">
         <v>0</v>
@@ -1704,7 +1704,7 @@
         <v>1000</v>
       </c>
       <c r="H5" s="3">
-        <v>200</v>
+        <v>9999</v>
       </c>
       <c r="I5" s="3">
         <v>1</v>
@@ -1719,10 +1719,10 @@
         <v>0</v>
       </c>
       <c r="M5" s="3">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="N5" s="3">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="O5" s="3">
         <v>0.01</v>
@@ -1734,10 +1734,10 @@
         <v>1</v>
       </c>
       <c r="R5" s="3">
-        <v>0.15</v>
+        <v>0.05</v>
       </c>
       <c r="S5" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T5" s="3">
         <v>0</v>
@@ -1764,7 +1764,7 @@
         <v>1</v>
       </c>
       <c r="AB5" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC5" s="3" t="s">
         <v>73</v>
@@ -1796,10 +1796,10 @@
         <v>1.5</v>
       </c>
       <c r="G6" s="3">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="H6" s="3">
-        <v>200</v>
+        <v>9999</v>
       </c>
       <c r="I6" s="3">
         <v>1</v>
@@ -1814,13 +1814,13 @@
         <v>0</v>
       </c>
       <c r="M6" s="3">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="N6" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="O6" s="3">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="P6" s="3">
         <v>1.5</v>
@@ -1829,10 +1829,10 @@
         <v>1</v>
       </c>
       <c r="R6" s="3">
-        <v>0.15</v>
+        <v>0.05</v>
       </c>
       <c r="S6" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T6" s="3">
         <v>0</v>
@@ -1859,7 +1859,7 @@
         <v>1</v>
       </c>
       <c r="AB6" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC6" s="3" t="s">
         <v>73</v>
@@ -1891,10 +1891,10 @@
         <v>3</v>
       </c>
       <c r="G7" s="3">
-        <v>2000</v>
+        <v>5000</v>
       </c>
       <c r="H7" s="3">
-        <v>200</v>
+        <v>9999</v>
       </c>
       <c r="I7" s="3">
         <v>1</v>
@@ -1903,19 +1903,19 @@
         <v>0</v>
       </c>
       <c r="K7" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L7" s="3">
         <v>0</v>
       </c>
       <c r="M7" s="3">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="N7" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="O7" s="3">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="P7" s="3">
         <v>1.5</v>
@@ -1924,10 +1924,10 @@
         <v>1</v>
       </c>
       <c r="R7" s="3">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="S7" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T7" s="3">
         <v>0</v>
@@ -1954,7 +1954,7 @@
         <v>1</v>
       </c>
       <c r="AB7" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC7" s="3" t="s">
         <v>73</v>

--- a/SERVER/Common/Data/excel/UnitDefine.xlsx
+++ b/SERVER/Common/Data/excel/UnitDefine.xlsx
@@ -4,30 +4,17 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="12790"/>
+    <workbookView windowWidth="20330" windowHeight="7190"/>
   </bookViews>
   <sheets>
     <sheet name="UnitDefine" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="94">
   <si>
     <t>ID</t>
   </si>
@@ -281,7 +268,7 @@
     <t>黄色传送门</t>
   </si>
   <si>
-    <t>治愈之水</t>
+    <t>治愈圣水</t>
   </si>
   <si>
     <t>SM_Item_Potion_01</t>
@@ -293,16 +280,28 @@
     <t>生命泉涌中的生命圣水稀释而来，对伤势一定的治疗效果。</t>
   </si>
   <si>
+    <t>魔力药剂</t>
+  </si>
+  <si>
+    <t>SM_Item_Potion_06</t>
+  </si>
+  <si>
     <t>龙钢战刃</t>
   </si>
   <si>
     <t>SM_Wep_Ornate_Sword_02</t>
+  </si>
+  <si>
+    <t>哥布林指骨</t>
+  </si>
+  <si>
+    <t>SM_Item_Bones</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -326,6 +325,34 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -339,6 +366,14 @@
       <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -378,21 +413,6 @@
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -443,28 +463,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -485,13 +484,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -509,24 +550,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -545,18 +592,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -569,36 +604,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -617,19 +628,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -678,6 +677,21 @@
       <top/>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -711,21 +725,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -782,148 +781,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -947,52 +946,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1263,12 +1262,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AF22"/>
+  <dimension ref="A1:AF23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="R1" activePane="topRight" state="frozen"/>
+      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="AB9" sqref="AB9"/>
+      <selection pane="topRight" activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1"/>
@@ -2169,7 +2168,7 @@
     </row>
     <row r="11" customHeight="1" spans="1:19">
       <c r="A11" s="3">
-        <v>1002001</v>
+        <v>1001002</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>88</v>
@@ -2180,6 +2179,9 @@
       <c r="D11" s="3" t="s">
         <v>86</v>
       </c>
+      <c r="E11" s="3" t="s">
+        <v>87</v>
+      </c>
       <c r="F11" s="3">
         <v>0</v>
       </c>
@@ -2223,11 +2225,117 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" customHeight="1" spans="3:3">
-      <c r="C12" s="4"/>
+    <row r="12" customHeight="1" spans="1:19">
+      <c r="A12" s="3">
+        <v>1002001</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="F12" s="3">
+        <v>0</v>
+      </c>
+      <c r="G12" s="3">
+        <v>0</v>
+      </c>
+      <c r="H12" s="3">
+        <v>0</v>
+      </c>
+      <c r="I12" s="3">
+        <v>0</v>
+      </c>
+      <c r="J12" s="3">
+        <v>0</v>
+      </c>
+      <c r="K12" s="3">
+        <v>0</v>
+      </c>
+      <c r="L12" s="3">
+        <v>0</v>
+      </c>
+      <c r="M12" s="3">
+        <v>0</v>
+      </c>
+      <c r="N12" s="3">
+        <v>0</v>
+      </c>
+      <c r="O12" s="3">
+        <v>0</v>
+      </c>
+      <c r="P12" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>0</v>
+      </c>
+      <c r="R12" s="3">
+        <v>0</v>
+      </c>
+      <c r="S12" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" customHeight="1" spans="3:3">
-      <c r="C13" s="4"/>
+    <row r="13" customHeight="1" spans="1:19">
+      <c r="A13" s="3">
+        <v>1002002</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="F13" s="3">
+        <v>0</v>
+      </c>
+      <c r="G13" s="3">
+        <v>0</v>
+      </c>
+      <c r="H13" s="3">
+        <v>0</v>
+      </c>
+      <c r="I13" s="3">
+        <v>0</v>
+      </c>
+      <c r="J13" s="3">
+        <v>0</v>
+      </c>
+      <c r="K13" s="3">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" customHeight="1" spans="3:3">
       <c r="C14" s="4"/>
@@ -2235,8 +2343,8 @@
     <row r="15" customHeight="1" spans="3:3">
       <c r="C15" s="4"/>
     </row>
-    <row r="17" customHeight="1" spans="3:3">
-      <c r="C17" s="4"/>
+    <row r="16" customHeight="1" spans="3:3">
+      <c r="C16" s="4"/>
     </row>
     <row r="18" customHeight="1" spans="3:3">
       <c r="C18" s="4"/>
@@ -2253,6 +2361,9 @@
     <row r="22" customHeight="1" spans="3:3">
       <c r="C22" s="4"/>
     </row>
+    <row r="23" customHeight="1" spans="3:3">
+      <c r="C23" s="4"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
